--- a/data/balance_sheet/3digits/total/279_BS_TOTAL.xlsx
+++ b/data/balance_sheet/3digits/total/279_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>279-Manufacture of other electrical equipment</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>279-Manufacture of other electrical equipment</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,12 +915,17 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
         <v>317894.59717</v>
@@ -1490,72 +940,82 @@
         <v>539937.8574400001</v>
       </c>
       <c r="G5" s="32" t="n">
-        <v>775584.1916200002</v>
+        <v>775601.5094600001</v>
       </c>
       <c r="H5" s="33" t="n">
-        <v>881253.8962800001</v>
+        <v>881271.42949</v>
       </c>
       <c r="I5" s="32" t="n">
-        <v>1156240.82318</v>
+        <v>1158013.45831</v>
       </c>
       <c r="J5" s="33" t="n">
-        <v>1253457.15518</v>
+        <v>1306706.04346</v>
       </c>
       <c r="K5" s="32" t="n">
         <v>1527767.70291</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>1735113.83454</v>
+        <v>1761930.22016</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>1841243.85217</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>1871394.20434</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>2471009.381</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
         <v>66836.19714</v>
       </c>
       <c r="D6" s="23" t="n">
-        <v>77292.38943000001</v>
+        <v>77292.38943</v>
       </c>
       <c r="E6" s="23" t="n">
-        <v>96149.52924</v>
+        <v>96149.52923999999</v>
       </c>
       <c r="F6" s="33" t="n">
-        <v>81972.19199000001</v>
+        <v>81972.19198999999</v>
       </c>
       <c r="G6" s="23" t="n">
-        <v>174923.60858</v>
+        <v>174923.80187</v>
       </c>
       <c r="H6" s="33" t="n">
-        <v>149681.37709</v>
+        <v>149681.67775</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>166117.35419</v>
+        <v>167059.34013</v>
       </c>
       <c r="J6" s="33" t="n">
-        <v>181519.23722</v>
+        <v>183604.76455</v>
       </c>
       <c r="K6" s="23" t="n">
         <v>241042.93917</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>281077.97004</v>
+        <v>282729.66524</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>357902.44109</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>360164.05437</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>477057.531</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
         <v>12462.7561</v>
@@ -1570,13 +1030,13 @@
         <v>13073.61825</v>
       </c>
       <c r="G7" s="22" t="n">
-        <v>16841.98218</v>
+        <v>16842.17547</v>
       </c>
       <c r="H7" s="21" t="n">
-        <v>16950.68426</v>
+        <v>16950.98492</v>
       </c>
       <c r="I7" s="22" t="n">
-        <v>20177.24861</v>
+        <v>20570.50899</v>
       </c>
       <c r="J7" s="21" t="n">
         <v>16964.07521</v>
@@ -1585,17 +1045,22 @@
         <v>18557.13322</v>
       </c>
       <c r="L7" s="22" t="n">
-        <v>24574.28253</v>
+        <v>25720.52772</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>29064.24527</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>29743.70332</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>30683.977</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
         <v>13993.04401</v>
@@ -1616,7 +1081,7 @@
         <v>44892.10744</v>
       </c>
       <c r="I8" s="22" t="n">
-        <v>55794.03636</v>
+        <v>55857.10683999999</v>
       </c>
       <c r="J8" s="21" t="n">
         <v>50304.42743</v>
@@ -1625,20 +1090,25 @@
         <v>62252.6832</v>
       </c>
       <c r="L8" s="22" t="n">
-        <v>50649.69845</v>
+        <v>51494.65333</v>
       </c>
       <c r="M8" s="22" t="n">
-        <v>70009.20340000001</v>
-      </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+        <v>71245.17124</v>
+      </c>
+      <c r="N8" s="22" t="n">
+        <v>86229.889</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
-        <v>44888.78758999999</v>
+        <v>44888.78759000001</v>
       </c>
       <c r="D9" s="22" t="n">
         <v>50841.63769</v>
@@ -1656,32 +1126,37 @@
         <v>96547.29893999999</v>
       </c>
       <c r="I9" s="22" t="n">
-        <v>103192.55862</v>
+        <v>103895.26311</v>
       </c>
       <c r="J9" s="21" t="n">
-        <v>122498.49489</v>
+        <v>124584.02222</v>
       </c>
       <c r="K9" s="22" t="n">
         <v>177631.88499</v>
       </c>
       <c r="L9" s="22" t="n">
-        <v>216196.67358</v>
+        <v>216579.99344</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>257353.90188</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>258121.52938</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>364909.826</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
-        <v>5153.06052</v>
+        <v>5153.060520000001</v>
       </c>
       <c r="D10" s="22" t="n">
-        <v>7658.20641</v>
+        <v>7658.206409999999</v>
       </c>
       <c r="E10" s="22" t="n">
         <v>7793.15642</v>
@@ -1690,13 +1165,13 @@
         <v>9550.44816</v>
       </c>
       <c r="G10" s="22" t="n">
-        <v>8146.52156</v>
+        <v>8146.521559999999</v>
       </c>
       <c r="H10" s="21" t="n">
         <v>11221.9309</v>
       </c>
       <c r="I10" s="22" t="n">
-        <v>18112.62282</v>
+        <v>18331.94865</v>
       </c>
       <c r="J10" s="21" t="n">
         <v>13276.52344</v>
@@ -1705,17 +1180,22 @@
         <v>24749.98456</v>
       </c>
       <c r="L10" s="22" t="n">
-        <v>16991.05539</v>
+        <v>17713.88012</v>
       </c>
       <c r="M10" s="22" t="n">
-        <v>12498.07903</v>
-      </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+        <v>12924.84196</v>
+      </c>
+      <c r="N10" s="22" t="n">
+        <v>19558.165</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
         <v>644.6699599999999</v>
@@ -1736,26 +1216,31 @@
         <v>2513.21735</v>
       </c>
       <c r="I11" s="22" t="n">
-        <v>5066.13342</v>
+        <v>5068.40984</v>
       </c>
       <c r="J11" s="21" t="n">
-        <v>5028.763130000001</v>
+        <v>5028.76313</v>
       </c>
       <c r="K11" s="22" t="n">
-        <v>7351.222319999999</v>
+        <v>7351.22232</v>
       </c>
       <c r="L11" s="22" t="n">
         <v>6648.370870000001</v>
       </c>
       <c r="M11" s="22" t="n">
-        <v>13973.16957</v>
-      </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+        <v>13978.49239</v>
+      </c>
+      <c r="N11" s="22" t="n">
+        <v>14792.004</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>4880.59361</v>
@@ -1770,7 +1255,7 @@
         <v>2516.93224</v>
       </c>
       <c r="G12" s="23" t="n">
-        <v>7230.702939999999</v>
+        <v>7230.70294</v>
       </c>
       <c r="H12" s="33" t="n">
         <v>8575.82775</v>
@@ -1790,12 +1275,17 @@
       <c r="M12" s="23" t="n">
         <v>20395.53826</v>
       </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+      <c r="N12" s="23" t="n">
+        <v>11024.405</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>0</v>
@@ -1830,12 +1320,17 @@
       <c r="M13" s="22" t="n">
         <v>10989.6</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+      <c r="N13" s="22" t="n">
+        <v>2654.4</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>3069.83903</v>
@@ -1870,12 +1365,17 @@
       <c r="M14" s="22" t="n">
         <v>5115.06997</v>
       </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+      <c r="N14" s="22" t="n">
+        <v>2750.12</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>699.04464</v>
@@ -1910,12 +1410,17 @@
       <c r="M15" s="22" t="n">
         <v>580.04767</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>347.896</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>1111.70994</v>
@@ -1950,12 +1455,17 @@
       <c r="M16" s="22" t="n">
         <v>3710.82062</v>
       </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+      <c r="N16" s="22" t="n">
+        <v>5271.989</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,12 +1500,17 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
         <v>134055.80747</v>
@@ -2013,29 +1528,34 @@
         <v>291762.46331</v>
       </c>
       <c r="H18" s="33" t="n">
-        <v>371354.74559</v>
+        <v>371354.7455899999</v>
       </c>
       <c r="I18" s="23" t="n">
-        <v>484309.33713</v>
+        <v>484805.26532</v>
       </c>
       <c r="J18" s="33" t="n">
-        <v>478832.1829600001</v>
+        <v>483807.15169</v>
       </c>
       <c r="K18" s="23" t="n">
         <v>599443.6945700001</v>
       </c>
       <c r="L18" s="23" t="n">
-        <v>590872.92975</v>
+        <v>599739.4276800001</v>
       </c>
       <c r="M18" s="23" t="n">
-        <v>629162.68927</v>
-      </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+        <v>636548.62835</v>
+      </c>
+      <c r="N18" s="23" t="n">
+        <v>881017.996</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
         <v>104693.4534</v>
@@ -2056,26 +1576,31 @@
         <v>312652.11325</v>
       </c>
       <c r="I19" s="22" t="n">
-        <v>402942.68278</v>
+        <v>403433.22988</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>379274.63159</v>
+        <v>384249.60032</v>
       </c>
       <c r="K19" s="22" t="n">
-        <v>469236.94276</v>
+        <v>469236.9427600001</v>
       </c>
       <c r="L19" s="22" t="n">
-        <v>483649.03744</v>
+        <v>491800.6644199999</v>
       </c>
       <c r="M19" s="22" t="n">
-        <v>531197.584</v>
-      </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+        <v>536326.5494</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>710975.3149999999</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
         <v>27341.72028</v>
@@ -2093,10 +1618,10 @@
         <v>54048.51702</v>
       </c>
       <c r="H20" s="21" t="n">
-        <v>52540.07348000001</v>
+        <v>52540.07348</v>
       </c>
       <c r="I20" s="22" t="n">
-        <v>72414.4375</v>
+        <v>72414.43749999999</v>
       </c>
       <c r="J20" s="21" t="n">
         <v>88122.06375999999</v>
@@ -2105,17 +1630,22 @@
         <v>116144.68468</v>
       </c>
       <c r="L20" s="22" t="n">
-        <v>88874.84017000001</v>
+        <v>89187.61156</v>
       </c>
       <c r="M20" s="22" t="n">
-        <v>77881.64382</v>
-      </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+        <v>79787.56101999999</v>
+      </c>
+      <c r="N20" s="22" t="n">
+        <v>152327.709</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>0</v>
@@ -2150,12 +1680,17 @@
       <c r="M21" s="22" t="n">
         <v>172.35968</v>
       </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+      <c r="N21" s="22" t="n">
+        <v>914.63</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,12 +1725,17 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
         <v>520.62096</v>
@@ -2216,7 +1756,7 @@
         <v>1213.19141</v>
       </c>
       <c r="I23" s="22" t="n">
-        <v>1698.21929</v>
+        <v>1703.60038</v>
       </c>
       <c r="J23" s="21" t="n">
         <v>1689.79164</v>
@@ -2225,23 +1765,28 @@
         <v>1948.64142</v>
       </c>
       <c r="L23" s="22" t="n">
-        <v>2526.2507</v>
+        <v>2558.99414</v>
       </c>
       <c r="M23" s="22" t="n">
-        <v>5266.40417</v>
-      </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+        <v>5267.02205</v>
+      </c>
+      <c r="N23" s="22" t="n">
+        <v>3461.832</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
         <v>1319.94072</v>
       </c>
       <c r="D24" s="22" t="n">
-        <v>895.6066099999999</v>
+        <v>895.60661</v>
       </c>
       <c r="E24" s="22" t="n">
         <v>1995.17899</v>
@@ -2262,20 +1807,25 @@
         <v>6904.860900000001</v>
       </c>
       <c r="K24" s="22" t="n">
-        <v>7728.39492</v>
+        <v>7728.394920000001</v>
       </c>
       <c r="L24" s="22" t="n">
-        <v>9813.22538</v>
+        <v>9943.30415</v>
       </c>
       <c r="M24" s="22" t="n">
-        <v>9348.63508</v>
-      </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+        <v>9477.40633</v>
+      </c>
+      <c r="N24" s="22" t="n">
+        <v>8552.203</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
         <v>1891.45861</v>
@@ -2305,17 +1855,22 @@
         <v>14370.3699</v>
       </c>
       <c r="L25" s="22" t="n">
-        <v>21173.15081</v>
+        <v>21412.42816</v>
       </c>
       <c r="M25" s="22" t="n">
-        <v>23126.0973</v>
-      </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+        <v>23347.76465</v>
+      </c>
+      <c r="N25" s="22" t="n">
+        <v>24711.641</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
         <v>1711.3865</v>
@@ -2336,13 +1891,13 @@
         <v>4029.10822</v>
       </c>
       <c r="I26" s="22" t="n">
-        <v>6588.137720000001</v>
+        <v>6588.13772</v>
       </c>
       <c r="J26" s="21" t="n">
         <v>7626.79924</v>
       </c>
       <c r="K26" s="22" t="n">
-        <v>9822.649059999998</v>
+        <v>9822.64906</v>
       </c>
       <c r="L26" s="22" t="n">
         <v>14903.66101</v>
@@ -2350,12 +1905,17 @@
       <c r="M26" s="22" t="n">
         <v>17485.31542</v>
       </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+      <c r="N26" s="22" t="n">
+        <v>18096.074</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
         <v>10102.23264</v>
@@ -2376,26 +1936,31 @@
         <v>19556.73581</v>
       </c>
       <c r="I27" s="23" t="n">
-        <v>61895.85214</v>
+        <v>61896.01645</v>
       </c>
       <c r="J27" s="33" t="n">
-        <v>31930.5777</v>
+        <v>72300.10382999999</v>
       </c>
       <c r="K27" s="23" t="n">
         <v>54544.00009</v>
       </c>
       <c r="L27" s="23" t="n">
-        <v>71798.49439000001</v>
+        <v>72674.89258000001</v>
       </c>
       <c r="M27" s="23" t="n">
-        <v>77751.35975</v>
-      </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+        <v>84109.96149</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>105474.255</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
         <v>7080.75873</v>
@@ -2404,16 +1969,16 @@
         <v>19871.70704</v>
       </c>
       <c r="E28" s="22" t="n">
-        <v>5397.909720000001</v>
+        <v>5397.90972</v>
       </c>
       <c r="F28" s="21" t="n">
-        <v>5351.209510000001</v>
+        <v>5351.20951</v>
       </c>
       <c r="G28" s="22" t="n">
         <v>5129.34959</v>
       </c>
       <c r="H28" s="21" t="n">
-        <v>7347.1191</v>
+        <v>7347.119100000001</v>
       </c>
       <c r="I28" s="22" t="n">
         <v>16185.14465</v>
@@ -2425,17 +1990,22 @@
         <v>29261.74169</v>
       </c>
       <c r="L28" s="22" t="n">
-        <v>31361.81562</v>
+        <v>31957.18767</v>
       </c>
       <c r="M28" s="22" t="n">
-        <v>44080.61976000001</v>
-      </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+        <v>46712.48323999999</v>
+      </c>
+      <c r="N28" s="22" t="n">
+        <v>59088.169</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>0</v>
@@ -2470,12 +2040,17 @@
       <c r="M29" s="22" t="n">
         <v>26.63393</v>
       </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+      <c r="N29" s="22" t="n">
+        <v>26.634</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>0</v>
@@ -2510,12 +2085,17 @@
       <c r="M30" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+      <c r="N30" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>67.19239999999999</v>
@@ -2533,10 +2113,10 @@
         <v>269.0147</v>
       </c>
       <c r="H31" s="21" t="n">
-        <v>447.92764</v>
+        <v>447.9276399999999</v>
       </c>
       <c r="I31" s="22" t="n">
-        <v>343.38802</v>
+        <v>343.55233</v>
       </c>
       <c r="J31" s="21" t="n">
         <v>285.17589</v>
@@ -2550,12 +2130,17 @@
       <c r="M31" s="22" t="n">
         <v>1396.01409</v>
       </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+      <c r="N31" s="22" t="n">
+        <v>1933.57</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
         <v>2954.28151</v>
@@ -2564,7 +2149,7 @@
         <v>6152.66213</v>
       </c>
       <c r="E32" s="22" t="n">
-        <v>7385.902249999999</v>
+        <v>7385.90225</v>
       </c>
       <c r="F32" s="21" t="n">
         <v>6042.568240000001</v>
@@ -2579,23 +2164,28 @@
         <v>45350.59854</v>
       </c>
       <c r="J32" s="21" t="n">
-        <v>15607.26443</v>
+        <v>55976.79056</v>
       </c>
       <c r="K32" s="22" t="n">
         <v>24240.43583</v>
       </c>
       <c r="L32" s="22" t="n">
-        <v>39332.48899</v>
+        <v>39613.51512999999</v>
       </c>
       <c r="M32" s="22" t="n">
-        <v>32240.77986</v>
-      </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+        <v>35967.51812</v>
+      </c>
+      <c r="N32" s="22" t="n">
+        <v>44418.57</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>42.93348</v>
@@ -2670,12 +2265,17 @@
       <c r="M34" s="22" t="n">
         <v>7.31211</v>
       </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+      <c r="N34" s="22" t="n">
+        <v>7.312</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>42.93348</v>
@@ -2710,12 +2310,17 @@
       <c r="M35" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
         <v>83261.94756999999</v>
@@ -2730,32 +2335,37 @@
         <v>183269.99919</v>
       </c>
       <c r="G36" s="23" t="n">
-        <v>235890.96439</v>
+        <v>235894.35439</v>
       </c>
       <c r="H36" s="33" t="n">
-        <v>286875.50713</v>
+        <v>286878.89713</v>
       </c>
       <c r="I36" s="23" t="n">
-        <v>373366.81713</v>
+        <v>373594.6598900001</v>
       </c>
       <c r="J36" s="33" t="n">
-        <v>428862.12895</v>
+        <v>433882.04028</v>
       </c>
       <c r="K36" s="23" t="n">
         <v>485813.40625</v>
       </c>
       <c r="L36" s="23" t="n">
-        <v>628835.87311</v>
+        <v>641460.2646299999</v>
       </c>
       <c r="M36" s="23" t="n">
-        <v>646166.4640299999</v>
-      </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+        <v>659423.06298</v>
+      </c>
+      <c r="N36" s="23" t="n">
+        <v>849119.515</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
         <v>34708.85681</v>
@@ -2764,19 +2374,19 @@
         <v>46527.83149</v>
       </c>
       <c r="E37" s="22" t="n">
-        <v>66489.80220000001</v>
+        <v>66489.80219999999</v>
       </c>
       <c r="F37" s="21" t="n">
         <v>84255.81921</v>
       </c>
       <c r="G37" s="22" t="n">
-        <v>93896.8754</v>
+        <v>93899.86105000001</v>
       </c>
       <c r="H37" s="21" t="n">
-        <v>126198.19722</v>
+        <v>126201.18287</v>
       </c>
       <c r="I37" s="22" t="n">
-        <v>145964.22391</v>
+        <v>146077.22227</v>
       </c>
       <c r="J37" s="21" t="n">
         <v>179964.50311</v>
@@ -2785,17 +2395,22 @@
         <v>210117.52079</v>
       </c>
       <c r="L37" s="22" t="n">
-        <v>316108.09379</v>
+        <v>317598.03078</v>
       </c>
       <c r="M37" s="22" t="n">
-        <v>312624.55682</v>
-      </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+        <v>313971.94675</v>
+      </c>
+      <c r="N37" s="22" t="n">
+        <v>396662.942</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
         <v>6211.038509999999</v>
@@ -2810,13 +2425,13 @@
         <v>11246.99751</v>
       </c>
       <c r="G38" s="22" t="n">
-        <v>18415.51654</v>
+        <v>18415.92089</v>
       </c>
       <c r="H38" s="21" t="n">
-        <v>26094.2918</v>
+        <v>26094.69615</v>
       </c>
       <c r="I38" s="22" t="n">
-        <v>28140.5856</v>
+        <v>28140.98995</v>
       </c>
       <c r="J38" s="21" t="n">
         <v>39290.98426</v>
@@ -2825,17 +2440,22 @@
         <v>42081.27154</v>
       </c>
       <c r="L38" s="22" t="n">
-        <v>37183.93726</v>
+        <v>41286.29123999999</v>
       </c>
       <c r="M38" s="22" t="n">
-        <v>51069.19377</v>
-      </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+        <v>51162.12652000001</v>
+      </c>
+      <c r="N38" s="22" t="n">
+        <v>58019.592</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>9517.495070000001</v>
@@ -2865,17 +2485,22 @@
         <v>60485.69719</v>
       </c>
       <c r="L39" s="22" t="n">
-        <v>91324.65776999999</v>
+        <v>91598.86196000001</v>
       </c>
       <c r="M39" s="22" t="n">
-        <v>108023.27391</v>
-      </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+        <v>109450.59724</v>
+      </c>
+      <c r="N39" s="22" t="n">
+        <v>139717.797</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
         <v>17355.88476</v>
@@ -2890,35 +2515,40 @@
         <v>37186.73098000001</v>
       </c>
       <c r="G40" s="22" t="n">
-        <v>47994.32037</v>
+        <v>47994.32036999999</v>
       </c>
       <c r="H40" s="21" t="n">
         <v>50535.52763</v>
       </c>
       <c r="I40" s="22" t="n">
-        <v>57717.75848</v>
+        <v>57832.61274</v>
       </c>
       <c r="J40" s="21" t="n">
-        <v>64730.97313</v>
+        <v>69704.73378</v>
       </c>
       <c r="K40" s="22" t="n">
         <v>70037.37228</v>
       </c>
       <c r="L40" s="22" t="n">
-        <v>82428.12361</v>
+        <v>87521.49202000001</v>
       </c>
       <c r="M40" s="22" t="n">
-        <v>79990.91608</v>
-      </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+        <v>85052.41373</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>122637.767</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
-        <v>398.21206</v>
+        <v>398.2120600000001</v>
       </c>
       <c r="D41" s="22" t="n">
         <v>2119.22145</v>
@@ -2936,26 +2566,31 @@
         <v>3490.1236</v>
       </c>
       <c r="I41" s="22" t="n">
-        <v>4799.283979999999</v>
+        <v>4799.28398</v>
       </c>
       <c r="J41" s="21" t="n">
-        <v>4967.155850000001</v>
+        <v>4967.155849999999</v>
       </c>
       <c r="K41" s="22" t="n">
-        <v>6577.0432</v>
+        <v>6577.043200000001</v>
       </c>
       <c r="L41" s="22" t="n">
-        <v>6315.871160000001</v>
+        <v>6315.871159999999</v>
       </c>
       <c r="M41" s="22" t="n">
-        <v>10116.46151</v>
-      </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+        <v>10196.46151</v>
+      </c>
+      <c r="N41" s="22" t="n">
+        <v>10259.002</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>0</v>
@@ -2976,7 +2611,7 @@
         <v>0.41421</v>
       </c>
       <c r="I42" s="22" t="n">
-        <v>0.62578</v>
+        <v>1.03999</v>
       </c>
       <c r="J42" s="21" t="n">
         <v>0.41421</v>
@@ -2990,12 +2625,17 @@
       <c r="M42" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
         <v>15070.46036</v>
@@ -3019,29 +2659,34 @@
         <v>91584.88481</v>
       </c>
       <c r="J43" s="21" t="n">
-        <v>93397.39118000001</v>
+        <v>93443.54186000001</v>
       </c>
       <c r="K43" s="22" t="n">
         <v>96514.91546</v>
       </c>
       <c r="L43" s="22" t="n">
-        <v>95475.60372999999</v>
+        <v>97140.13168000001</v>
       </c>
       <c r="M43" s="22" t="n">
-        <v>84342.06194</v>
-      </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+        <v>89589.51723</v>
+      </c>
+      <c r="N43" s="22" t="n">
+        <v>121822.415</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
         <v>10962.51703</v>
       </c>
       <c r="D44" s="23" t="n">
-        <v>8444.777279999998</v>
+        <v>8444.777280000002</v>
       </c>
       <c r="E44" s="23" t="n">
         <v>11114.1634</v>
@@ -3059,29 +2704,34 @@
         <v>22964.58958</v>
       </c>
       <c r="J44" s="33" t="n">
-        <v>73359.99154</v>
+        <v>73359.99153999999</v>
       </c>
       <c r="K44" s="23" t="n">
         <v>69085.75808</v>
       </c>
       <c r="L44" s="23" t="n">
-        <v>90354.06293</v>
+        <v>90995.17035</v>
       </c>
       <c r="M44" s="23" t="n">
-        <v>36837.0325</v>
-      </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+        <v>36859.78011</v>
+      </c>
+      <c r="N44" s="23" t="n">
+        <v>54803.75</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
         <v>10962.51703</v>
       </c>
       <c r="D45" s="22" t="n">
-        <v>8444.777279999998</v>
+        <v>8444.777280000002</v>
       </c>
       <c r="E45" s="22" t="n">
         <v>11114.1634</v>
@@ -3105,17 +2755,22 @@
         <v>69043.11637999999</v>
       </c>
       <c r="L45" s="22" t="n">
-        <v>90311.42123000001</v>
+        <v>90952.52865000001</v>
       </c>
       <c r="M45" s="22" t="n">
-        <v>36837.0325</v>
-      </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+        <v>36859.78011</v>
+      </c>
+      <c r="N45" s="22" t="n">
+        <v>54803.75</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>0</v>
@@ -3190,12 +2850,17 @@
       <c r="M47" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>932.28867</v>
@@ -3213,29 +2878,34 @@
         <v>8632.208909999999</v>
       </c>
       <c r="H48" s="45" t="n">
-        <v>9193.3807</v>
+        <v>9193.380700000002</v>
       </c>
       <c r="I48" s="46" t="n">
-        <v>6737.08866</v>
+        <v>6777.11263</v>
       </c>
       <c r="J48" s="45" t="n">
-        <v>7670.35367</v>
+        <v>7734.310359999999</v>
       </c>
       <c r="K48" s="46" t="n">
         <v>9002.602070000001</v>
       </c>
       <c r="L48" s="46" t="n">
-        <v>9231.264449999999</v>
+        <v>9330.97703</v>
       </c>
       <c r="M48" s="46" t="n">
-        <v>11401.82881</v>
-      </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+        <v>11409.06612</v>
+      </c>
+      <c r="N48" s="46" t="n">
+        <v>14762.334</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
         <v>797.23097</v>
@@ -3256,26 +2926,31 @@
         <v>2550.79424</v>
       </c>
       <c r="I49" s="22" t="n">
-        <v>5449.79201</v>
+        <v>5489.81598</v>
       </c>
       <c r="J49" s="21" t="n">
-        <v>6103.50441</v>
+        <v>6150.40682</v>
       </c>
       <c r="K49" s="22" t="n">
         <v>8150.387390000001</v>
       </c>
       <c r="L49" s="22" t="n">
-        <v>8170.96945</v>
+        <v>8270.68203</v>
       </c>
       <c r="M49" s="22" t="n">
-        <v>10607.06825</v>
-      </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+        <v>10614.30556</v>
+      </c>
+      <c r="N49" s="22" t="n">
+        <v>13446.493</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
         <v>135.0577</v>
@@ -3299,7 +2974,7 @@
         <v>1287.29665</v>
       </c>
       <c r="J50" s="21" t="n">
-        <v>1566.84926</v>
+        <v>1583.90354</v>
       </c>
       <c r="K50" s="22" t="n">
         <v>852.21468</v>
@@ -3310,12 +2985,17 @@
       <c r="M50" s="22" t="n">
         <v>794.7605600000001</v>
       </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+      <c r="N50" s="22" t="n">
+        <v>1315.841</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>6863.01304</v>
@@ -3330,32 +3010,37 @@
         <v>21118.29477</v>
       </c>
       <c r="G51" s="46" t="n">
-        <v>19214.80542</v>
+        <v>19228.53997</v>
       </c>
       <c r="H51" s="45" t="n">
-        <v>28335.16368</v>
+        <v>28349.00623</v>
       </c>
       <c r="I51" s="46" t="n">
-        <v>31698.56179</v>
+        <v>31765.25175</v>
       </c>
       <c r="J51" s="45" t="n">
-        <v>40032.86543999999</v>
+        <v>40767.86351</v>
       </c>
       <c r="K51" s="46" t="n">
         <v>49109.5135</v>
       </c>
       <c r="L51" s="46" t="n">
-        <v>51213.42978</v>
+        <v>53270.01256</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>61626.49846</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>62484.11266</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>77749.595</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
         <v>3579.59402</v>
@@ -3370,32 +3055,37 @@
         <v>14637.94193</v>
       </c>
       <c r="G52" s="22" t="n">
-        <v>13121.01935</v>
+        <v>13134.7539</v>
       </c>
       <c r="H52" s="21" t="n">
-        <v>15951.10406</v>
+        <v>15964.94661</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>15733.27145</v>
+        <v>15754.44038</v>
       </c>
       <c r="J52" s="21" t="n">
-        <v>25921.37036</v>
+        <v>26608.44567</v>
       </c>
       <c r="K52" s="22" t="n">
         <v>29361.55682</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>31468.43608</v>
+        <v>32482.42983</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>27289.73609</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>27834.7799</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>40926.088</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>40.24409000000001</v>
@@ -3425,17 +3115,22 @@
         <v>366.17848</v>
       </c>
       <c r="L53" s="22" t="n">
-        <v>330.0917900000001</v>
+        <v>396.12035</v>
       </c>
       <c r="M53" s="22" t="n">
-        <v>720.73033</v>
-      </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+        <v>721.6016500000001</v>
+      </c>
+      <c r="N53" s="22" t="n">
+        <v>3125.683</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
         <v>602.49166</v>
@@ -3447,7 +3142,7 @@
         <v>2692.411</v>
       </c>
       <c r="F54" s="21" t="n">
-        <v>3404.758580000001</v>
+        <v>3404.75858</v>
       </c>
       <c r="G54" s="22" t="n">
         <v>2818.60313</v>
@@ -3468,20 +3163,25 @@
         <v>4133.52566</v>
       </c>
       <c r="M54" s="22" t="n">
-        <v>6348.457640000001</v>
-      </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+        <v>6539.22884</v>
+      </c>
+      <c r="N54" s="22" t="n">
+        <v>5815.815</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
         <v>1242.39199</v>
       </c>
       <c r="D55" s="22" t="n">
-        <v>899.5103</v>
+        <v>899.5103000000001</v>
       </c>
       <c r="E55" s="22" t="n">
         <v>1250.96867</v>
@@ -3496,26 +3196,31 @@
         <v>2495.2945</v>
       </c>
       <c r="I55" s="22" t="n">
-        <v>2374.2117</v>
+        <v>2419.73273</v>
       </c>
       <c r="J55" s="21" t="n">
-        <v>2073.17631</v>
+        <v>2121.09907</v>
       </c>
       <c r="K55" s="22" t="n">
         <v>3986.21847</v>
       </c>
       <c r="L55" s="22" t="n">
-        <v>5619.06414</v>
+        <v>5625.00929</v>
       </c>
       <c r="M55" s="22" t="n">
-        <v>5699.286050000001</v>
-      </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+        <v>5701.126429999999</v>
+      </c>
+      <c r="N55" s="22" t="n">
+        <v>3422.036</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
         <v>1260.65704</v>
@@ -3536,26 +3241,31 @@
         <v>5710.13641</v>
       </c>
       <c r="I56" s="22" t="n">
-        <v>8066.581480000001</v>
+        <v>8066.581480000002</v>
       </c>
       <c r="J56" s="21" t="n">
-        <v>7145.12217</v>
+        <v>7145.122170000001</v>
       </c>
       <c r="K56" s="22" t="n">
         <v>10193.89548</v>
       </c>
       <c r="L56" s="22" t="n">
-        <v>7743.44651</v>
+        <v>8713.161830000001</v>
       </c>
       <c r="M56" s="22" t="n">
-        <v>11410.9885</v>
-      </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+        <v>11530.07599</v>
+      </c>
+      <c r="N56" s="22" t="n">
+        <v>15461.426</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>102.60136</v>
@@ -3564,7 +3274,7 @@
         <v>239.4773</v>
       </c>
       <c r="E57" s="22" t="n">
-        <v>856.7318599999999</v>
+        <v>856.73186</v>
       </c>
       <c r="F57" s="21" t="n">
         <v>365.27389</v>
@@ -3573,7 +3283,7 @@
         <v>612.0481100000001</v>
       </c>
       <c r="H57" s="21" t="n">
-        <v>759.5956</v>
+        <v>759.5956000000001</v>
       </c>
       <c r="I57" s="22" t="n">
         <v>906.91721</v>
@@ -3585,17 +3295,22 @@
         <v>2219.86431</v>
       </c>
       <c r="L57" s="22" t="n">
-        <v>1827.64849</v>
+        <v>1828.54849</v>
       </c>
       <c r="M57" s="22" t="n">
         <v>2245.34735</v>
       </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+      <c r="N57" s="22" t="n">
+        <v>2481.779</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>0.87851</v>
@@ -3630,15 +3345,20 @@
       <c r="M58" s="22" t="n">
         <v>69.29105</v>
       </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" s="22" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
-        <v>34.15436999999999</v>
+        <v>34.15437</v>
       </c>
       <c r="D59" s="22" t="n">
         <v>2.42718</v>
@@ -3670,11 +3390,16 @@
       <c r="M59" s="22" t="n">
         <v>7842.661450000001</v>
       </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+      <c r="N59" s="22" t="n">
+        <v>6505.778</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>0</v>
@@ -3709,12 +3434,17 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
         <v>100685.967</v>
@@ -3729,32 +3459,37 @@
         <v>213596.41743</v>
       </c>
       <c r="G61" s="36" t="n">
-        <v>259480.79669</v>
+        <v>259506.08548</v>
       </c>
       <c r="H61" s="37" t="n">
-        <v>281435.68923</v>
+        <v>281456.08923</v>
       </c>
       <c r="I61" s="36" t="n">
-        <v>411280.50963</v>
+        <v>411668.85866</v>
       </c>
       <c r="J61" s="37" t="n">
-        <v>471438.52912</v>
+        <v>489137.1067300001</v>
       </c>
       <c r="K61" s="36" t="n">
-        <v>672439.7968299999</v>
+        <v>672439.79683</v>
       </c>
       <c r="L61" s="36" t="n">
-        <v>773587.81721</v>
+        <v>776230.76011</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>855018.6691700001</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>858761.33947</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>890478.1409999999</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
         <v>1145.70107</v>
@@ -3778,23 +3513,28 @@
         <v>2460.13224</v>
       </c>
       <c r="J62" s="37" t="n">
-        <v>1522.72729</v>
+        <v>1633.7091</v>
       </c>
       <c r="K62" s="36" t="n">
         <v>1275.73783</v>
       </c>
       <c r="L62" s="36" t="n">
-        <v>3459.69336</v>
+        <v>3475.44834</v>
       </c>
       <c r="M62" s="36" t="n">
-        <v>6402.00973</v>
-      </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+        <v>6432.13713</v>
+      </c>
+      <c r="N62" s="36" t="n">
+        <v>8749.791999999999</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>1009.58041</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>1667.16388</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>1667.164</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>0</v>
@@ -3869,12 +3614,17 @@
       <c r="M64" s="22" t="n">
         <v>1727.90724</v>
       </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+      <c r="N64" s="22" t="n">
+        <v>2759.072</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -3949,12 +3704,17 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
         <v>136.12066</v>
@@ -3963,7 +3723,7 @@
         <v>263.04801</v>
       </c>
       <c r="E67" s="22" t="n">
-        <v>327.92219</v>
+        <v>327.9221899999999</v>
       </c>
       <c r="F67" s="21" t="n">
         <v>428.68055</v>
@@ -3978,23 +3738,28 @@
         <v>1100.80104</v>
       </c>
       <c r="J67" s="21" t="n">
-        <v>1013.2608</v>
+        <v>1124.24261</v>
       </c>
       <c r="K67" s="22" t="n">
         <v>1067.58973</v>
       </c>
       <c r="L67" s="22" t="n">
-        <v>1792.52948</v>
+        <v>1808.28446</v>
       </c>
       <c r="M67" s="22" t="n">
-        <v>3010.49709</v>
-      </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+        <v>3040.62449</v>
+      </c>
+      <c r="N67" s="22" t="n">
+        <v>4323.556</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,30 +3794,35 @@
       <c r="M68" s="22" t="n">
         <v>3.55848</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
         <v>1292.10972</v>
       </c>
       <c r="D69" s="36" t="n">
-        <v>903.12284</v>
+        <v>903.1228400000001</v>
       </c>
       <c r="E69" s="36" t="n">
         <v>5090.11338</v>
       </c>
       <c r="F69" s="37" t="n">
-        <v>7657.11619</v>
+        <v>7657.116190000001</v>
       </c>
       <c r="G69" s="36" t="n">
-        <v>9050.500670000001</v>
+        <v>9050.500669999999</v>
       </c>
       <c r="H69" s="37" t="n">
-        <v>6975.30687</v>
+        <v>6975.306869999999</v>
       </c>
       <c r="I69" s="36" t="n">
         <v>9139.419179999999</v>
@@ -4061,20 +3831,25 @@
         <v>3070.70842</v>
       </c>
       <c r="K69" s="36" t="n">
-        <v>7956.97032</v>
+        <v>7956.970319999999</v>
       </c>
       <c r="L69" s="36" t="n">
-        <v>4881.62099</v>
+        <v>4919.69577</v>
       </c>
       <c r="M69" s="36" t="n">
-        <v>9541.01016</v>
-      </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+        <v>9579.084939999999</v>
+      </c>
+      <c r="N69" s="36" t="n">
+        <v>32575.438</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>1242.03699</v>
@@ -4095,7 +3870,7 @@
         <v>5985.06813</v>
       </c>
       <c r="I70" s="22" t="n">
-        <v>7976.62385</v>
+        <v>7976.623850000001</v>
       </c>
       <c r="J70" s="21" t="n">
         <v>2260.74855</v>
@@ -4104,17 +3879,22 @@
         <v>6141.73435</v>
       </c>
       <c r="L70" s="22" t="n">
-        <v>3870.33119</v>
+        <v>3908.40597</v>
       </c>
       <c r="M70" s="22" t="n">
-        <v>9451.11592</v>
-      </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+        <v>9489.190699999999</v>
+      </c>
+      <c r="N70" s="22" t="n">
+        <v>32121.44</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>0</v>
@@ -4149,12 +3929,17 @@
       <c r="M71" s="22" t="n">
         <v>74.82116000000001</v>
       </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+      <c r="N71" s="22" t="n">
+        <v>74.821</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>0</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>0</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>10</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>16.385</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>50.07273</v>
@@ -4258,7 +4053,7 @@
         <v>1038.61817</v>
       </c>
       <c r="J74" s="21" t="n">
-        <v>705.89607</v>
+        <v>705.8960699999999</v>
       </c>
       <c r="K74" s="22" t="n">
         <v>1622.17817</v>
@@ -4269,12 +4064,17 @@
       <c r="M74" s="22" t="n">
         <v>5.07308</v>
       </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+      <c r="N74" s="22" t="n">
+        <v>362.792</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,15 +4154,20 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
-        <v>8609.60457</v>
+        <v>8609.604569999998</v>
       </c>
       <c r="D77" s="23" t="n">
         <v>11161.50441</v>
@@ -4375,7 +4185,7 @@
         <v>3246.14844</v>
       </c>
       <c r="I77" s="23" t="n">
-        <v>19337.68315</v>
+        <v>19344.5908</v>
       </c>
       <c r="J77" s="33" t="n">
         <v>20552.0758</v>
@@ -4389,12 +4199,17 @@
       <c r="M77" s="23" t="n">
         <v>140582.27528</v>
       </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+      <c r="N77" s="23" t="n">
+        <v>88389.39200000001</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>0</v>
@@ -4429,12 +4244,17 @@
       <c r="M78" s="22" t="n">
         <v>0.01889</v>
       </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+      <c r="N78" s="22" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -4469,12 +4289,17 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
         <v>262.10851</v>
@@ -4501,20 +4326,25 @@
         <v>20220.57978</v>
       </c>
       <c r="K80" s="22" t="n">
-        <v>22580.5322</v>
+        <v>22580.53219999999</v>
       </c>
       <c r="L80" s="22" t="n">
-        <v>41415.76851000001</v>
+        <v>41415.76850999999</v>
       </c>
       <c r="M80" s="22" t="n">
         <v>38481.50055</v>
       </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+      <c r="N80" s="22" t="n">
+        <v>38520.856</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>37</v>
@@ -4549,12 +4379,17 @@
       <c r="M81" s="22" t="n">
         <v>19.57922</v>
       </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+      <c r="N81" s="22" t="n">
+        <v>19.679</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>0</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>11410.575</v>
@@ -4629,12 +4469,17 @@
       <c r="M83" s="22" t="n">
         <v>102177.37068</v>
       </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+      <c r="N83" s="22" t="n">
+        <v>49948.249</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>3026.07894</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>80.05327</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>80.053</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>0</v>
@@ -4735,7 +4590,7 @@
         <v>6.18765</v>
       </c>
       <c r="I86" s="22" t="n">
-        <v>10</v>
+        <v>16.90765</v>
       </c>
       <c r="J86" s="21" t="n">
         <v>123.55765</v>
@@ -4749,12 +4604,17 @@
       <c r="M86" s="22" t="n">
         <v>23.01765</v>
       </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+      <c r="N86" s="22" t="n">
+        <v>20</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,12 +4649,17 @@
       <c r="M87" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
         <v>79278.06009999999</v>
@@ -4809,32 +4674,37 @@
         <v>143600.21609</v>
       </c>
       <c r="G88" s="23" t="n">
-        <v>170746.04204</v>
+        <v>170766.44204</v>
       </c>
       <c r="H88" s="33" t="n">
-        <v>211256.54839</v>
+        <v>211276.94839</v>
       </c>
       <c r="I88" s="23" t="n">
-        <v>291291.41613</v>
+        <v>291646.73907</v>
       </c>
       <c r="J88" s="33" t="n">
-        <v>334428.12429</v>
+        <v>351985.62326</v>
       </c>
       <c r="K88" s="23" t="n">
         <v>450209.59516</v>
       </c>
       <c r="L88" s="23" t="n">
-        <v>521394.42433</v>
+        <v>522224.78742</v>
       </c>
       <c r="M88" s="23" t="n">
-        <v>569535.21176</v>
-      </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+        <v>572568.80236</v>
+      </c>
+      <c r="N88" s="23" t="n">
+        <v>634673.3810000001</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
         <v>11947.21983</v>
@@ -4855,7 +4725,7 @@
         <v>32769.93506</v>
       </c>
       <c r="I89" s="22" t="n">
-        <v>37426.3507</v>
+        <v>37490.31285</v>
       </c>
       <c r="J89" s="21" t="n">
         <v>39194.09883</v>
@@ -4869,12 +4739,17 @@
       <c r="M89" s="22" t="n">
         <v>25502.54259</v>
       </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+      <c r="N89" s="22" t="n">
+        <v>23356.136</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>892.20562</v>
@@ -4883,7 +4758,7 @@
         <v>954.06772</v>
       </c>
       <c r="E90" s="22" t="n">
-        <v>974.3964199999999</v>
+        <v>974.39642</v>
       </c>
       <c r="F90" s="21" t="n">
         <v>797.52278</v>
@@ -4909,12 +4784,17 @@
       <c r="M90" s="22" t="n">
         <v>985.9979599999999</v>
       </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+      <c r="N90" s="22" t="n">
+        <v>2575.229</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
         <v>31163.54662</v>
@@ -4935,66 +4815,76 @@
         <v>74302.53040999999</v>
       </c>
       <c r="I91" s="22" t="n">
-        <v>117840.9499</v>
+        <v>118319.61454</v>
       </c>
       <c r="J91" s="21" t="n">
-        <v>111706.20372</v>
+        <v>129704.23382</v>
       </c>
       <c r="K91" s="22" t="n">
-        <v>262744.7881600001</v>
+        <v>262744.78816</v>
       </c>
       <c r="L91" s="22" t="n">
-        <v>305969.54049</v>
+        <v>306004.54049</v>
       </c>
       <c r="M91" s="22" t="n">
         <v>360489.10486</v>
       </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+      <c r="N91" s="22" t="n">
+        <v>388608.553</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
         <v>49669.64416</v>
       </c>
       <c r="D92" s="22" t="n">
-        <v>52459.58807000001</v>
+        <v>52459.58807</v>
       </c>
       <c r="E92" s="22" t="n">
-        <v>68004.97777000001</v>
+        <v>68004.97777</v>
       </c>
       <c r="F92" s="21" t="n">
         <v>74501.84152</v>
       </c>
       <c r="G92" s="22" t="n">
-        <v>87569.88478000001</v>
+        <v>87595.38478000001</v>
       </c>
       <c r="H92" s="21" t="n">
-        <v>104361.12529</v>
+        <v>104386.62529</v>
       </c>
       <c r="I92" s="22" t="n">
-        <v>128167.13224</v>
+        <v>128354.76454</v>
       </c>
       <c r="J92" s="21" t="n">
-        <v>144340.99465</v>
+        <v>144749.96169</v>
       </c>
       <c r="K92" s="22" t="n">
         <v>183812.94486</v>
       </c>
       <c r="L92" s="22" t="n">
-        <v>207395.63888</v>
+        <v>207868.49516</v>
       </c>
       <c r="M92" s="22" t="n">
-        <v>235559.52499</v>
-      </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+        <v>236489.26962</v>
+      </c>
+      <c r="N92" s="22" t="n">
+        <v>290464.135</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
         <v>23131.0281</v>
@@ -5012,29 +4902,34 @@
         <v>39910.21629</v>
       </c>
       <c r="H93" s="21" t="n">
-        <v>45014.71537</v>
+        <v>45014.71537000001</v>
       </c>
       <c r="I93" s="22" t="n">
-        <v>47267.16603999999</v>
+        <v>47644.87511</v>
       </c>
       <c r="J93" s="21" t="n">
         <v>52834.99084000001</v>
       </c>
       <c r="K93" s="22" t="n">
-        <v>58688.20458000001</v>
+        <v>58688.20458</v>
       </c>
       <c r="L93" s="22" t="n">
-        <v>65305.93927</v>
+        <v>65741.16889</v>
       </c>
       <c r="M93" s="22" t="n">
-        <v>70831.65054999999</v>
-      </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+        <v>71902.16206</v>
+      </c>
+      <c r="N93" s="22" t="n">
+        <v>89121.067</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
         <v>17985.57512</v>
@@ -5052,29 +4947,34 @@
         <v>33944.49623</v>
       </c>
       <c r="H94" s="21" t="n">
-        <v>37567.76912999999</v>
+        <v>37567.76913</v>
       </c>
       <c r="I94" s="22" t="n">
-        <v>44446.60292</v>
+        <v>44613.97419</v>
       </c>
       <c r="J94" s="21" t="n">
-        <v>51524.67919</v>
+        <v>51589.8114</v>
       </c>
       <c r="K94" s="22" t="n">
         <v>61385.46654</v>
       </c>
       <c r="L94" s="22" t="n">
-        <v>64623.62812</v>
+        <v>64945.74418000001</v>
       </c>
       <c r="M94" s="22" t="n">
-        <v>70024.45415000001</v>
-      </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+        <v>70871.64077</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>84587.898</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>2075.03953</v>
@@ -5089,7 +4989,7 @@
         <v>2726.11422</v>
       </c>
       <c r="G95" s="22" t="n">
-        <v>3097.83531</v>
+        <v>3097.835309999999</v>
       </c>
       <c r="H95" s="21" t="n">
         <v>3977.85135</v>
@@ -5098,26 +4998,31 @@
         <v>4437.90605</v>
       </c>
       <c r="J95" s="21" t="n">
-        <v>4564.17291</v>
+        <v>4692.86704</v>
       </c>
       <c r="K95" s="22" t="n">
         <v>5354.71759</v>
       </c>
       <c r="L95" s="22" t="n">
-        <v>5659.3336</v>
+        <v>5678.034149999999</v>
       </c>
       <c r="M95" s="22" t="n">
-        <v>6445.97057</v>
-      </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+        <v>6445.970569999999</v>
+      </c>
+      <c r="N95" s="22" t="n">
+        <v>7695.227</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
-        <v>66562.87829000001</v>
+        <v>66562.87828999999</v>
       </c>
       <c r="D96" s="22" t="n">
         <v>68436.04925</v>
@@ -5129,35 +5034,40 @@
         <v>82619.98117</v>
       </c>
       <c r="G96" s="22" t="n">
-        <v>99278.64874999999</v>
+        <v>99283.74875</v>
       </c>
       <c r="H96" s="21" t="n">
-        <v>113022.31864</v>
+        <v>113027.41864</v>
       </c>
       <c r="I96" s="22" t="n">
-        <v>130608.19627</v>
+        <v>131613.69</v>
       </c>
       <c r="J96" s="21" t="n">
-        <v>151001.09496</v>
+        <v>152044.41947</v>
       </c>
       <c r="K96" s="22" t="n">
         <v>188471.22126</v>
       </c>
       <c r="L96" s="22" t="n">
-        <v>217241.84905</v>
+        <v>217695.38847</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>253540.3399</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>254421.36113</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>298309.733</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
-        <v>5565.408260000001</v>
+        <v>5565.40826</v>
       </c>
       <c r="D97" s="22" t="n">
         <v>8056.94449</v>
@@ -5184,17 +5094,22 @@
         <v>41314.26327</v>
       </c>
       <c r="L97" s="22" t="n">
-        <v>61884.73035</v>
+        <v>61884.73034999999</v>
       </c>
       <c r="M97" s="22" t="n">
-        <v>42544.73611999999</v>
-      </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+        <v>43611.90519</v>
+      </c>
+      <c r="N97" s="22" t="n">
+        <v>35439.036</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
         <v>3411.27115</v>
@@ -5215,7 +5130,7 @@
         <v>288.4303</v>
       </c>
       <c r="I98" s="22" t="n">
-        <v>833.68945</v>
+        <v>919.1666899999999</v>
       </c>
       <c r="J98" s="21" t="n">
         <v>1016.29535</v>
@@ -5229,15 +5144,20 @@
       <c r="M98" s="22" t="n">
         <v>10691.56987</v>
       </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+      <c r="N98" s="22" t="n">
+        <v>11135.833</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
-        <v>7782.21154</v>
+        <v>7782.211539999999</v>
       </c>
       <c r="D99" s="23" t="n">
         <v>7401.49548</v>
@@ -5252,29 +5172,34 @@
         <v>42957.88178</v>
       </c>
       <c r="H99" s="33" t="n">
-        <v>45851.80265</v>
+        <v>45851.80265000001</v>
       </c>
       <c r="I99" s="23" t="n">
-        <v>65933.1355</v>
+        <v>65950.98245</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>77516.84660999999</v>
+        <v>77546.94344</v>
       </c>
       <c r="K99" s="23" t="n">
-        <v>73222.28263</v>
+        <v>73222.28263000002</v>
       </c>
       <c r="L99" s="23" t="n">
-        <v>77215.21595</v>
+        <v>77269.7723</v>
       </c>
       <c r="M99" s="23" t="n">
-        <v>76605.49429999999</v>
-      </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+        <v>76882.26247</v>
+      </c>
+      <c r="N99" s="23" t="n">
+        <v>80238.94500000001</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
         <v>4262.99716</v>
@@ -5286,7 +5211,7 @@
         <v>7547.513269999999</v>
       </c>
       <c r="F100" s="21" t="n">
-        <v>8045.93361</v>
+        <v>8045.933609999999</v>
       </c>
       <c r="G100" s="22" t="n">
         <v>15903.18716</v>
@@ -5298,23 +5223,28 @@
         <v>43627.95851</v>
       </c>
       <c r="J100" s="21" t="n">
-        <v>50541.21861</v>
+        <v>50594.73256</v>
       </c>
       <c r="K100" s="22" t="n">
-        <v>50798.32634</v>
+        <v>50798.32634000001</v>
       </c>
       <c r="L100" s="22" t="n">
-        <v>51030.15361</v>
+        <v>51052.49716</v>
       </c>
       <c r="M100" s="22" t="n">
-        <v>55003.37604</v>
-      </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+        <v>55005.36406</v>
+      </c>
+      <c r="N100" s="22" t="n">
+        <v>52291.316</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>0</v>
@@ -5349,12 +5279,17 @@
       <c r="M101" s="22" t="n">
         <v>835.51586</v>
       </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+      <c r="N101" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
         <v>121.27128</v>
@@ -5375,7 +5310,7 @@
         <v>112.38394</v>
       </c>
       <c r="I102" s="22" t="n">
-        <v>87.29433</v>
+        <v>87.29432999999999</v>
       </c>
       <c r="J102" s="21" t="n">
         <v>93.80323999999999</v>
@@ -5384,17 +5319,22 @@
         <v>118.34363</v>
       </c>
       <c r="L102" s="22" t="n">
-        <v>141.46799</v>
+        <v>151.29277</v>
       </c>
       <c r="M102" s="22" t="n">
-        <v>180.87469</v>
-      </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+        <v>204.65884</v>
+      </c>
+      <c r="N102" s="22" t="n">
+        <v>195.685</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>1633.29281</v>
@@ -5424,17 +5364,22 @@
         <v>18803.83857</v>
       </c>
       <c r="L103" s="22" t="n">
-        <v>24126.13641</v>
+        <v>24130.49129</v>
       </c>
       <c r="M103" s="22" t="n">
-        <v>26338.08673</v>
-      </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+        <v>26464.20035</v>
+      </c>
+      <c r="N103" s="22" t="n">
+        <v>39959.196</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
         <v>5623.1229</v>
@@ -5443,7 +5388,7 @@
         <v>5988.77449</v>
       </c>
       <c r="E104" s="22" t="n">
-        <v>6793.439969999999</v>
+        <v>6793.43997</v>
       </c>
       <c r="F104" s="21" t="n">
         <v>13418.3286</v>
@@ -5464,17 +5409,22 @@
         <v>20397.66754</v>
       </c>
       <c r="L104" s="22" t="n">
-        <v>26886.16544</v>
+        <v>26920.71346</v>
       </c>
       <c r="M104" s="22" t="n">
-        <v>26293.338</v>
-      </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+        <v>26404.51672</v>
+      </c>
+      <c r="N104" s="22" t="n">
+        <v>28544.02</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
         <v>2324.66691</v>
@@ -5495,7 +5445,7 @@
         <v>10108.53717</v>
       </c>
       <c r="I105" s="22" t="n">
-        <v>11953.94546</v>
+        <v>11971.79241</v>
       </c>
       <c r="J105" s="21" t="n">
         <v>11513.33181</v>
@@ -5504,23 +5454,28 @@
         <v>17937.47894</v>
       </c>
       <c r="L105" s="22" t="n">
-        <v>19230.60817</v>
+        <v>19235.04367</v>
       </c>
       <c r="M105" s="22" t="n">
-        <v>16999.82649</v>
-      </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+        <v>17179.42044</v>
+      </c>
+      <c r="N105" s="22" t="n">
+        <v>15809.35</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
         <v>6183.68857</v>
       </c>
       <c r="D106" s="22" t="n">
-        <v>7007.597009999999</v>
+        <v>7007.59701</v>
       </c>
       <c r="E106" s="22" t="n">
         <v>9584.504640000001</v>
@@ -5538,23 +5493,28 @@
         <v>25245.02345</v>
       </c>
       <c r="J106" s="21" t="n">
-        <v>30812.07388</v>
+        <v>30835.491</v>
       </c>
       <c r="K106" s="22" t="n">
         <v>34879.47663</v>
       </c>
       <c r="L106" s="22" t="n">
-        <v>44279.18762</v>
+        <v>44300.13799999999</v>
       </c>
       <c r="M106" s="22" t="n">
-        <v>49045.52351000001</v>
-      </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+        <v>49211.41379999999</v>
+      </c>
+      <c r="N106" s="22" t="n">
+        <v>57372.652</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>0.5490499999999999</v>
@@ -5589,12 +5549,17 @@
       <c r="M107" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>812.03</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
         <v>80.43338</v>
@@ -5629,12 +5594,17 @@
       <c r="M108" s="23" t="n">
         <v>1434.69512</v>
       </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+      <c r="N108" s="23" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>0</v>
@@ -5669,12 +5639,17 @@
       <c r="M109" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+      <c r="N109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>80.43338</v>
@@ -5709,12 +5684,17 @@
       <c r="M110" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+      <c r="N110" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>0</v>
@@ -5749,12 +5729,17 @@
       <c r="M111" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+      <c r="N111" s="22" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>0</v>
@@ -5789,12 +5774,17 @@
       <c r="M112" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+      <c r="N112" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>0</v>
@@ -5829,12 +5819,17 @@
       <c r="M113" s="22" t="n">
         <v>1434.69512</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
         <v>1905.34126</v>
@@ -5855,7 +5850,7 @@
         <v>11136.02056</v>
       </c>
       <c r="I114" s="23" t="n">
-        <v>21420.03344</v>
+        <v>21428.30493</v>
       </c>
       <c r="J114" s="33" t="n">
         <v>18842.45711</v>
@@ -5864,17 +5859,22 @@
         <v>27371.92835</v>
       </c>
       <c r="L114" s="23" t="n">
-        <v>31909.15707</v>
+        <v>31965.81671</v>
       </c>
       <c r="M114" s="23" t="n">
-        <v>33729.21377</v>
-      </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+        <v>33810.22312</v>
+      </c>
+      <c r="N114" s="23" t="n">
+        <v>33050.527</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
         <v>1905.34126</v>
@@ -5889,13 +5889,13 @@
         <v>6749.46867</v>
       </c>
       <c r="G115" s="22" t="n">
-        <v>8529.084309999998</v>
+        <v>8529.08431</v>
       </c>
       <c r="H115" s="21" t="n">
         <v>11131.28859</v>
       </c>
       <c r="I115" s="22" t="n">
-        <v>21153.37944</v>
+        <v>21161.65093</v>
       </c>
       <c r="J115" s="21" t="n">
         <v>18842.45711</v>
@@ -5904,17 +5904,22 @@
         <v>27368.5865</v>
       </c>
       <c r="L115" s="22" t="n">
-        <v>31909.15707</v>
+        <v>31965.81671</v>
       </c>
       <c r="M115" s="22" t="n">
-        <v>33723.65354</v>
-      </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+        <v>33804.66289</v>
+      </c>
+      <c r="N115" s="22" t="n">
+        <v>33050.527</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>0</v>
@@ -5949,12 +5954,17 @@
       <c r="M116" s="22" t="n">
         <v>5.56023</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>592.50536</v>
@@ -5963,13 +5973,13 @@
         <v>1107.66109</v>
       </c>
       <c r="E117" s="23" t="n">
-        <v>939.6276499999999</v>
+        <v>939.62765</v>
       </c>
       <c r="F117" s="33" t="n">
-        <v>887.93057</v>
+        <v>887.9305700000001</v>
       </c>
       <c r="G117" s="23" t="n">
-        <v>1232.04481</v>
+        <v>1236.9336</v>
       </c>
       <c r="H117" s="33" t="n">
         <v>842.49108</v>
@@ -5984,17 +5994,22 @@
         <v>16305.83303</v>
       </c>
       <c r="L117" s="23" t="n">
-        <v>18847.44005</v>
+        <v>20494.97411</v>
       </c>
       <c r="M117" s="23" t="n">
-        <v>17188.75905</v>
-      </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+        <v>17471.85905</v>
+      </c>
+      <c r="N117" s="23" t="n">
+        <v>12800.657</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>0</v>
@@ -6029,12 +6044,17 @@
       <c r="M118" s="22" t="n">
         <v>142.18881</v>
       </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+      <c r="N118" s="22" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>0.85178</v>
@@ -6069,12 +6089,17 @@
       <c r="M119" s="22" t="n">
         <v>315.20498</v>
       </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+      <c r="N119" s="22" t="n">
+        <v>20.885</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
@@ -6109,12 +6134,17 @@
       <c r="M120" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>33.1</v>
@@ -6144,17 +6174,22 @@
         <v>115.20785</v>
       </c>
       <c r="L121" s="22" t="n">
-        <v>87.35536999999999</v>
+        <v>120.45537</v>
       </c>
       <c r="M121" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+        <v>33.1</v>
+      </c>
+      <c r="N121" s="22" t="n">
+        <v>107.18</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>558.55358</v>
@@ -6189,12 +6224,17 @@
       <c r="M122" s="22" t="n">
         <v>1974.84562</v>
       </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+      <c r="N122" s="22" t="n">
+        <v>2573.125</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>0</v>
@@ -6209,7 +6249,7 @@
         <v>0</v>
       </c>
       <c r="G123" s="22" t="n">
-        <v>0</v>
+        <v>4.88879</v>
       </c>
       <c r="H123" s="21" t="n">
         <v>368.54973</v>
@@ -6229,12 +6269,17 @@
       <c r="M123" s="22" t="n">
         <v>43.84390999999999</v>
       </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+      <c r="N123" s="22" t="n">
+        <v>0.197</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
@@ -6269,12 +6314,17 @@
       <c r="M124" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>0</v>
@@ -6309,12 +6359,17 @@
       <c r="M125" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+      <c r="N125" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6344,54 +6399,62 @@
         <v>12839.42994</v>
       </c>
       <c r="L126" s="22" t="n">
-        <v>14679.51564</v>
+        <v>16293.9497</v>
       </c>
       <c r="M126" s="22" t="n">
-        <v>14712.67573</v>
-      </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+        <v>14962.67573</v>
+      </c>
+      <c r="N126" s="22" t="n">
+        <v>10099.207</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
         <v>418580.56417</v>
       </c>
       <c r="D127" s="23" t="n">
-        <v>483979.1350600001</v>
+        <v>483979.13506</v>
       </c>
       <c r="E127" s="23" t="n">
-        <v>662147.81476</v>
+        <v>662147.8147600001</v>
       </c>
       <c r="F127" s="33" t="n">
         <v>753534.27487</v>
       </c>
       <c r="G127" s="23" t="n">
-        <v>1035064.98831</v>
+        <v>1035107.59494</v>
       </c>
       <c r="H127" s="33" t="n">
-        <v>1162689.58551</v>
+        <v>1162727.51872</v>
       </c>
       <c r="I127" s="23" t="n">
-        <v>1567521.33281</v>
+        <v>1569682.31697</v>
       </c>
       <c r="J127" s="33" t="n">
-        <v>1724895.6843</v>
+        <v>1795843.15019</v>
       </c>
       <c r="K127" s="23" t="n">
         <v>2200207.49974</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>2508701.65175</v>
+        <v>2538160.98027</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>2696262.52134</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>2730155.54381</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>3361487.522</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>279-Manufacture of other electrical equipment</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,12 +6553,17 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
         <v>214374.65195</v>
@@ -6495,44 +6572,49 @@
         <v>236303.57293</v>
       </c>
       <c r="E132" s="23" t="n">
-        <v>344106.8684500001</v>
+        <v>344106.86845</v>
       </c>
       <c r="F132" s="33" t="n">
         <v>381341.0429</v>
       </c>
       <c r="G132" s="23" t="n">
-        <v>480439.70095</v>
+        <v>480597.71228</v>
       </c>
       <c r="H132" s="33" t="n">
-        <v>604942.21637</v>
+        <v>605104.8437999999</v>
       </c>
       <c r="I132" s="23" t="n">
-        <v>771713.88763</v>
+        <v>772204.9575499999</v>
       </c>
       <c r="J132" s="33" t="n">
-        <v>846259.62804</v>
+        <v>867837.2668700001</v>
       </c>
       <c r="K132" s="23" t="n">
         <v>1055707.18166</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>1205144.14079</v>
+        <v>1233193.37861</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>1147889.95064</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>1176926.28973</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>1415271.454</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
         <v>30807.13154</v>
       </c>
       <c r="D133" s="23" t="n">
-        <v>48221.33318</v>
+        <v>48221.33317999999</v>
       </c>
       <c r="E133" s="23" t="n">
         <v>72519.43238</v>
@@ -6547,35 +6629,40 @@
         <v>115164.73449</v>
       </c>
       <c r="I133" s="23" t="n">
-        <v>139591.78257</v>
+        <v>139599.77577</v>
       </c>
       <c r="J133" s="33" t="n">
-        <v>142302.7512</v>
+        <v>147114.9012</v>
       </c>
       <c r="K133" s="23" t="n">
         <v>179104.36568</v>
       </c>
       <c r="L133" s="23" t="n">
-        <v>195627.28151</v>
+        <v>195756.62415</v>
       </c>
       <c r="M133" s="23" t="n">
-        <v>123652.66448</v>
-      </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+        <v>125306.83014</v>
+      </c>
+      <c r="N133" s="23" t="n">
+        <v>155375.215</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
         <v>27552.30886</v>
       </c>
       <c r="D134" s="22" t="n">
-        <v>45321.9344</v>
+        <v>45321.93439999999</v>
       </c>
       <c r="E134" s="22" t="n">
-        <v>69239.89923</v>
+        <v>69239.89923000001</v>
       </c>
       <c r="F134" s="21" t="n">
         <v>73046.15298999999</v>
@@ -6587,26 +6674,31 @@
         <v>109779.70446</v>
       </c>
       <c r="I134" s="22" t="n">
-        <v>131598.21416</v>
+        <v>131606.20736</v>
       </c>
       <c r="J134" s="21" t="n">
-        <v>130535.63865</v>
+        <v>135347.78865</v>
       </c>
       <c r="K134" s="22" t="n">
         <v>163713.37346</v>
       </c>
       <c r="L134" s="22" t="n">
-        <v>182372.28627</v>
+        <v>182441.10391</v>
       </c>
       <c r="M134" s="22" t="n">
-        <v>110664.32417</v>
-      </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+        <v>112308.93005</v>
+      </c>
+      <c r="N134" s="22" t="n">
+        <v>138985.073</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>406.40974</v>
@@ -6641,12 +6733,17 @@
       <c r="M135" s="22" t="n">
         <v>1183.0907</v>
       </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+      <c r="N135" s="22" t="n">
+        <v>2140.405</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
         <v>163.49806</v>
@@ -6681,12 +6778,17 @@
       <c r="M136" s="22" t="n">
         <v>143.39951</v>
       </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+      <c r="N136" s="22" t="n">
+        <v>324.122</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
         <v>618.5004</v>
@@ -6721,12 +6823,17 @@
       <c r="M137" s="22" t="n">
         <v>10561.22269</v>
       </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+      <c r="N137" s="22" t="n">
+        <v>12902.032</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
@@ -6761,12 +6868,17 @@
       <c r="M138" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+      <c r="N138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,18 +7003,23 @@
       <c r="M141" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>2393.4106</v>
       </c>
       <c r="D142" s="22" t="n">
-        <v>2406.65342</v>
+        <v>2406.653420000001</v>
       </c>
       <c r="E142" s="22" t="n">
         <v>2970.99731</v>
@@ -6901,7 +7028,7 @@
         <v>4524.7285</v>
       </c>
       <c r="G142" s="22" t="n">
-        <v>8190.192029999999</v>
+        <v>8190.19203</v>
       </c>
       <c r="H142" s="21" t="n">
         <v>3612.20223</v>
@@ -6916,23 +7043,28 @@
         <v>2373.39461</v>
       </c>
       <c r="L142" s="22" t="n">
-        <v>1633.67045</v>
+        <v>1694.19545</v>
       </c>
       <c r="M142" s="22" t="n">
-        <v>1387.42643</v>
-      </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+        <v>1396.98621</v>
+      </c>
+      <c r="N142" s="22" t="n">
+        <v>1671.827</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
-        <v>86694.62259999999</v>
+        <v>86694.6226</v>
       </c>
       <c r="D143" s="46" t="n">
-        <v>94210.39197999999</v>
+        <v>94210.39198</v>
       </c>
       <c r="E143" s="46" t="n">
         <v>130438.69358</v>
@@ -6941,72 +7073,82 @@
         <v>176988.40534</v>
       </c>
       <c r="G143" s="46" t="n">
-        <v>207369.31272</v>
+        <v>207444.65564</v>
       </c>
       <c r="H143" s="45" t="n">
-        <v>307835.63915</v>
+        <v>307914.52207</v>
       </c>
       <c r="I143" s="46" t="n">
-        <v>413555.19857</v>
+        <v>413903.34017</v>
       </c>
       <c r="J143" s="45" t="n">
-        <v>410261.88803</v>
+        <v>423034.22313</v>
       </c>
       <c r="K143" s="46" t="n">
         <v>492078.8888099999</v>
       </c>
       <c r="L143" s="46" t="n">
-        <v>523023.3520600001</v>
+        <v>541367.7708200001</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>530099.98569</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>539597.42036</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>670268.009</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
-        <v>71121.92520999999</v>
+        <v>71121.92521</v>
       </c>
       <c r="D144" s="25" t="n">
         <v>69829.68775</v>
       </c>
       <c r="E144" s="25" t="n">
-        <v>98012.00658000002</v>
+        <v>98012.00658</v>
       </c>
       <c r="F144" s="24" t="n">
         <v>128989.15737</v>
       </c>
       <c r="G144" s="25" t="n">
-        <v>162951.46998</v>
+        <v>163026.8129</v>
       </c>
       <c r="H144" s="24" t="n">
-        <v>251131.27958</v>
+        <v>251210.1625</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>336560.60798</v>
+        <v>336892.08434</v>
       </c>
       <c r="J144" s="24" t="n">
-        <v>306463.38562</v>
+        <v>318914.91058</v>
       </c>
       <c r="K144" s="25" t="n">
         <v>361605.08572</v>
       </c>
       <c r="L144" s="25" t="n">
-        <v>390824.02837</v>
+        <v>408234.59488</v>
       </c>
       <c r="M144" s="25" t="n">
-        <v>388973.35188</v>
-      </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+        <v>394971.74446</v>
+      </c>
+      <c r="N144" s="25" t="n">
+        <v>538163.429</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
         <v>12178.65847</v>
@@ -7027,26 +7169,31 @@
         <v>51866.19625</v>
       </c>
       <c r="I145" s="25" t="n">
-        <v>68024.37118</v>
+        <v>68024.37117999999</v>
       </c>
       <c r="J145" s="24" t="n">
-        <v>95945.18690999999</v>
+        <v>95945.18691000002</v>
       </c>
       <c r="K145" s="25" t="n">
         <v>119657.73421</v>
       </c>
       <c r="L145" s="25" t="n">
-        <v>122557.7978</v>
+        <v>123212.8938</v>
       </c>
       <c r="M145" s="25" t="n">
-        <v>125672.23099</v>
-      </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+        <v>128638.35626</v>
+      </c>
+      <c r="N145" s="25" t="n">
+        <v>125604.101</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
         <v>0</v>
@@ -7081,12 +7228,17 @@
       <c r="M146" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>64.458</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
         <v>56.26771</v>
@@ -7095,13 +7247,13 @@
         <v>256.31811</v>
       </c>
       <c r="E147" s="25" t="n">
-        <v>2308.60984</v>
+        <v>2308.609840000001</v>
       </c>
       <c r="F147" s="24" t="n">
         <v>2547.63627</v>
       </c>
       <c r="G147" s="25" t="n">
-        <v>317.62984</v>
+        <v>317.6298399999999</v>
       </c>
       <c r="H147" s="24" t="n">
         <v>407.54677</v>
@@ -7110,29 +7262,34 @@
         <v>785.25454</v>
       </c>
       <c r="J147" s="24" t="n">
-        <v>1223.02416</v>
+        <v>1543.83416</v>
       </c>
       <c r="K147" s="25" t="n">
         <v>2231.24259</v>
       </c>
       <c r="L147" s="25" t="n">
-        <v>1809.12889</v>
+        <v>1988.72203</v>
       </c>
       <c r="M147" s="25" t="n">
         <v>8224.644029999999</v>
       </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+      <c r="N147" s="25" t="n">
+        <v>1252.117</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
         <v>3337.77121</v>
       </c>
       <c r="D148" s="25" t="n">
-        <v>4884.65249</v>
+        <v>4884.652489999999</v>
       </c>
       <c r="E148" s="25" t="n">
         <v>2860.90813</v>
@@ -7144,32 +7301,37 @@
         <v>3882.23247</v>
       </c>
       <c r="H148" s="24" t="n">
-        <v>4430.61655</v>
+        <v>4430.616550000001</v>
       </c>
       <c r="I148" s="25" t="n">
-        <v>8184.964870000001</v>
+        <v>8201.63011</v>
       </c>
       <c r="J148" s="24" t="n">
-        <v>6630.29134</v>
+        <v>6630.291480000001</v>
       </c>
       <c r="K148" s="25" t="n">
         <v>8634.826289999999</v>
       </c>
       <c r="L148" s="25" t="n">
-        <v>7882.397</v>
+        <v>7981.560110000001</v>
       </c>
       <c r="M148" s="25" t="n">
-        <v>7229.75879</v>
-      </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+        <v>7762.675609999999</v>
+      </c>
+      <c r="N148" s="25" t="n">
+        <v>5312.82</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
-        <v>49591.98865</v>
+        <v>49591.98865000001</v>
       </c>
       <c r="D149" s="23" t="n">
         <v>49374.94165</v>
@@ -7181,32 +7343,37 @@
         <v>62011.4813</v>
       </c>
       <c r="G149" s="23" t="n">
-        <v>60500.26215</v>
+        <v>60582.81056000001</v>
       </c>
       <c r="H149" s="33" t="n">
-        <v>70989.54057</v>
+        <v>71072.92508</v>
       </c>
       <c r="I149" s="23" t="n">
-        <v>74181.87874000001</v>
+        <v>74269.20925</v>
       </c>
       <c r="J149" s="33" t="n">
-        <v>97845.85012999999</v>
+        <v>98806.51732</v>
       </c>
       <c r="K149" s="23" t="n">
         <v>143780.69198</v>
       </c>
       <c r="L149" s="23" t="n">
-        <v>176159.94137</v>
+        <v>178071.57974</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>222591.36312</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>230460.21111</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>228127.251</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
         <v>44419.67213000001</v>
@@ -7218,35 +7385,40 @@
         <v>64627.79448</v>
       </c>
       <c r="F150" s="21" t="n">
-        <v>53689.71251999999</v>
+        <v>53689.71252</v>
       </c>
       <c r="G150" s="22" t="n">
-        <v>45409.35067</v>
+        <v>45491.89908</v>
       </c>
       <c r="H150" s="21" t="n">
-        <v>56864.18245</v>
+        <v>56947.56696</v>
       </c>
       <c r="I150" s="22" t="n">
-        <v>54549.58979999999</v>
+        <v>54636.92030999999</v>
       </c>
       <c r="J150" s="21" t="n">
-        <v>72731.02823</v>
+        <v>72732.77240999999</v>
       </c>
       <c r="K150" s="22" t="n">
         <v>109741.53631</v>
       </c>
       <c r="L150" s="22" t="n">
-        <v>144076.70042</v>
+        <v>145382.70827</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>175663.98128</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>182296.52931</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>167825.655</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>0</v>
@@ -7281,12 +7453,17 @@
       <c r="M151" s="22" t="n">
         <v>2712.06823</v>
       </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+      <c r="N151" s="22" t="n">
+        <v>2654.654</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>1584.35731</v>
@@ -7321,12 +7498,17 @@
       <c r="M152" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+      <c r="N152" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
         <v>2397.29748</v>
@@ -7341,7 +7523,7 @@
         <v>4711.52663</v>
       </c>
       <c r="G153" s="22" t="n">
-        <v>5939.19251</v>
+        <v>5939.192510000001</v>
       </c>
       <c r="H153" s="21" t="n">
         <v>7196.27137</v>
@@ -7356,17 +7538,22 @@
         <v>15415.31752</v>
       </c>
       <c r="L153" s="22" t="n">
-        <v>16939.70814</v>
+        <v>17388.58257</v>
       </c>
       <c r="M153" s="22" t="n">
-        <v>19687.02229</v>
-      </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+        <v>20914.33861</v>
+      </c>
+      <c r="N153" s="22" t="n">
+        <v>21526.22</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>1190.66173</v>
@@ -7381,32 +7568,37 @@
         <v>3570.32665</v>
       </c>
       <c r="G154" s="22" t="n">
-        <v>9151.718969999998</v>
+        <v>9151.71897</v>
       </c>
       <c r="H154" s="21" t="n">
-        <v>6603.486039999999</v>
+        <v>6603.48604</v>
       </c>
       <c r="I154" s="22" t="n">
         <v>10429.93509</v>
       </c>
       <c r="J154" s="21" t="n">
-        <v>11048.1343</v>
+        <v>12007.05731</v>
       </c>
       <c r="K154" s="22" t="n">
         <v>18415.15751</v>
       </c>
       <c r="L154" s="22" t="n">
-        <v>14989.64501</v>
+        <v>15146.4011</v>
       </c>
       <c r="M154" s="22" t="n">
-        <v>24528.29132</v>
-      </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+        <v>24537.27496</v>
+      </c>
+      <c r="N154" s="22" t="n">
+        <v>36120.722</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,12 +7633,17 @@
       <c r="M155" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
         <v>22288.38658</v>
@@ -7470,23 +7667,28 @@
         <v>79342.63785</v>
       </c>
       <c r="J156" s="33" t="n">
-        <v>86167.28272999999</v>
+        <v>88962.43825000001</v>
       </c>
       <c r="K156" s="23" t="n">
         <v>110836.61524</v>
       </c>
       <c r="L156" s="23" t="n">
-        <v>153573.18571</v>
+        <v>157866.09607</v>
       </c>
       <c r="M156" s="23" t="n">
-        <v>129399.98918</v>
-      </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+        <v>133720.22374</v>
+      </c>
+      <c r="N156" s="23" t="n">
+        <v>180516.753</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
         <v>22207.04215</v>
@@ -7507,26 +7709,31 @@
         <v>71268.20017</v>
       </c>
       <c r="I157" s="22" t="n">
-        <v>79090.18425000001</v>
+        <v>79090.18424999999</v>
       </c>
       <c r="J157" s="21" t="n">
-        <v>85105.07896000001</v>
+        <v>87900.23448</v>
       </c>
       <c r="K157" s="22" t="n">
         <v>110326.69486</v>
       </c>
       <c r="L157" s="22" t="n">
-        <v>151673.04649</v>
+        <v>155965.95685</v>
       </c>
       <c r="M157" s="22" t="n">
-        <v>127414.84245</v>
-      </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+        <v>131729.40796</v>
+      </c>
+      <c r="N157" s="22" t="n">
+        <v>178915.237</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>81.34442999999999</v>
@@ -7559,20 +7766,25 @@
         <v>1900.13922</v>
       </c>
       <c r="M158" s="22" t="n">
-        <v>1985.14673</v>
-      </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+        <v>1990.81578</v>
+      </c>
+      <c r="N158" s="22" t="n">
+        <v>1601.516</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>11583.69139</v>
       </c>
       <c r="D159" s="23" t="n">
-        <v>9423.641820000001</v>
+        <v>9423.641819999999</v>
       </c>
       <c r="E159" s="23" t="n">
         <v>12408.41094</v>
@@ -7593,26 +7805,31 @@
         <v>59380.44070000001</v>
       </c>
       <c r="K159" s="23" t="n">
-        <v>61987.26707</v>
+        <v>61987.26706999999</v>
       </c>
       <c r="L159" s="23" t="n">
-        <v>78281.60035000001</v>
+        <v>78441.60034999999</v>
       </c>
       <c r="M159" s="23" t="n">
-        <v>49834.86084</v>
-      </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+        <v>49834.86083999999</v>
+      </c>
+      <c r="N159" s="23" t="n">
+        <v>69445.265</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>11583.69139</v>
       </c>
       <c r="D160" s="22" t="n">
-        <v>9423.641820000001</v>
+        <v>9423.641819999999</v>
       </c>
       <c r="E160" s="22" t="n">
         <v>12408.41094</v>
@@ -7633,20 +7850,25 @@
         <v>59380.44070000001</v>
       </c>
       <c r="K160" s="22" t="n">
-        <v>61987.26707</v>
+        <v>61987.26706999999</v>
       </c>
       <c r="L160" s="22" t="n">
-        <v>78281.60035000001</v>
+        <v>78441.60034999999</v>
       </c>
       <c r="M160" s="22" t="n">
-        <v>49834.86084</v>
-      </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+        <v>49834.86083999999</v>
+      </c>
+      <c r="N160" s="22" t="n">
+        <v>69445.265</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
@@ -7681,12 +7903,17 @@
       <c r="M161" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
         <v>11469.44594</v>
@@ -7701,38 +7928,43 @@
         <v>17093.60338</v>
       </c>
       <c r="G162" s="23" t="n">
-        <v>21575.16889</v>
+        <v>21575.28889</v>
       </c>
       <c r="H162" s="33" t="n">
-        <v>22466.94481</v>
+        <v>22467.30481</v>
       </c>
       <c r="I162" s="23" t="n">
-        <v>30211.40187</v>
+        <v>30230.56567</v>
       </c>
       <c r="J162" s="33" t="n">
-        <v>43023.16776999999</v>
+        <v>43239.59658</v>
       </c>
       <c r="K162" s="23" t="n">
         <v>57320.26226</v>
       </c>
       <c r="L162" s="23" t="n">
-        <v>61467.89673000001</v>
+        <v>64617.36848</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>67904.71866</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>73305.89313</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>81185.383</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
         <v>6163.43705</v>
       </c>
       <c r="D163" s="22" t="n">
-        <v>6387.45302</v>
+        <v>6387.453020000001</v>
       </c>
       <c r="E163" s="22" t="n">
         <v>7873.431710000001</v>
@@ -7741,41 +7973,46 @@
         <v>7831.56766</v>
       </c>
       <c r="G163" s="22" t="n">
-        <v>11062.66925</v>
+        <v>11062.78925</v>
       </c>
       <c r="H163" s="21" t="n">
-        <v>9781.39255</v>
+        <v>9781.752550000001</v>
       </c>
       <c r="I163" s="22" t="n">
-        <v>14634.95428</v>
+        <v>14650.50988</v>
       </c>
       <c r="J163" s="21" t="n">
-        <v>18818.68281</v>
+        <v>18987.56533</v>
       </c>
       <c r="K163" s="22" t="n">
         <v>26230.65933</v>
       </c>
       <c r="L163" s="22" t="n">
-        <v>31980.00658</v>
+        <v>32435.26559</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>33920.10337</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>37064.31135</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>42436.251</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
         <v>2636.54856</v>
       </c>
       <c r="D164" s="22" t="n">
-        <v>3050.07846</v>
+        <v>3050.078460000001</v>
       </c>
       <c r="E164" s="22" t="n">
-        <v>4491.017970000001</v>
+        <v>4491.01797</v>
       </c>
       <c r="F164" s="21" t="n">
         <v>4144.15306</v>
@@ -7787,32 +8024,37 @@
         <v>5243.41862</v>
       </c>
       <c r="I164" s="22" t="n">
-        <v>6510.724689999999</v>
+        <v>6514.332890000001</v>
       </c>
       <c r="J164" s="21" t="n">
-        <v>10434.26411</v>
+        <v>10481.8104</v>
       </c>
       <c r="K164" s="22" t="n">
         <v>12606.18844</v>
       </c>
       <c r="L164" s="22" t="n">
-        <v>11891.26055</v>
+        <v>12300.84789</v>
       </c>
       <c r="M164" s="22" t="n">
-        <v>15256.61552</v>
-      </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+        <v>16252.32074</v>
+      </c>
+      <c r="N164" s="22" t="n">
+        <v>15688.138</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
         <v>2628.83132</v>
       </c>
       <c r="D165" s="22" t="n">
-        <v>3306.255020000001</v>
+        <v>3306.25502</v>
       </c>
       <c r="E165" s="22" t="n">
         <v>4476.16945</v>
@@ -7836,17 +8078,22 @@
         <v>18210.51139</v>
       </c>
       <c r="L165" s="22" t="n">
-        <v>17397.517</v>
+        <v>19680.6884</v>
       </c>
       <c r="M165" s="22" t="n">
-        <v>18426.64869</v>
-      </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+        <v>19687.90996</v>
+      </c>
+      <c r="N165" s="22" t="n">
+        <v>22797.681</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>40.62901</v>
@@ -7876,17 +8123,22 @@
         <v>272.9031</v>
       </c>
       <c r="L166" s="22" t="n">
-        <v>199.1126</v>
+        <v>200.5666</v>
       </c>
       <c r="M166" s="22" t="n">
         <v>301.35108</v>
       </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+      <c r="N166" s="22" t="n">
+        <v>263.313</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
         <v>1415.15921</v>
@@ -7913,26 +8165,31 @@
         <v>5169.98935</v>
       </c>
       <c r="K167" s="23" t="n">
-        <v>7324.11656</v>
+        <v>7324.116559999999</v>
       </c>
       <c r="L167" s="23" t="n">
-        <v>12222.57214</v>
+        <v>12283.99483</v>
       </c>
       <c r="M167" s="23" t="n">
-        <v>11301.7968</v>
-      </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+        <v>11356.43179</v>
+      </c>
+      <c r="N167" s="23" t="n">
+        <v>20517.661</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
         <v>5068.327699999999</v>
       </c>
       <c r="D168" s="22" t="n">
-        <v>7689.35109</v>
+        <v>7689.351089999999</v>
       </c>
       <c r="E168" s="22" t="n">
         <v>12255.21848</v>
@@ -7956,17 +8213,22 @@
         <v>20203.26623</v>
       </c>
       <c r="L168" s="22" t="n">
-        <v>33091.92544</v>
+        <v>33130.94038</v>
       </c>
       <c r="M168" s="22" t="n">
-        <v>35112.10478</v>
-      </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+        <v>35192.22632</v>
+      </c>
+      <c r="N168" s="22" t="n">
+        <v>66353.58100000001</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
         <v>3746.95344</v>
@@ -7996,17 +8258,22 @@
         <v>13246.61066</v>
       </c>
       <c r="L169" s="22" t="n">
-        <v>21198.2198</v>
+        <v>21175.81205</v>
       </c>
       <c r="M169" s="22" t="n">
-        <v>24596.22187</v>
-      </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+        <v>24621.70842</v>
+      </c>
+      <c r="N169" s="22" t="n">
+        <v>46595.124</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>26.7505</v>
@@ -8041,12 +8308,17 @@
       <c r="M170" s="22" t="n">
         <v>399.3205</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>627.215</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>67.03444999999999</v>
@@ -8081,12 +8353,17 @@
       <c r="M171" s="22" t="n">
         <v>131.92316</v>
       </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+      <c r="N171" s="22" t="n">
+        <v>131.989</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>0</v>
@@ -8121,12 +8398,17 @@
       <c r="M172" s="22" t="n">
         <v>254.67023</v>
       </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+      <c r="N172" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
         <v>269.12688</v>
@@ -8147,26 +8429,31 @@
         <v>1180.2666</v>
       </c>
       <c r="I173" s="23" t="n">
-        <v>1008.65839</v>
+        <v>1037.0992</v>
       </c>
       <c r="J173" s="33" t="n">
-        <v>1395.84771</v>
+        <v>1416.74992</v>
       </c>
       <c r="K173" s="23" t="n">
         <v>1792.33845</v>
       </c>
       <c r="L173" s="23" t="n">
-        <v>3917.9195</v>
+        <v>3917.95275</v>
       </c>
       <c r="M173" s="23" t="n">
-        <v>6191.887720000001</v>
-      </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+        <v>6230.44962</v>
+      </c>
+      <c r="N173" s="23" t="n">
+        <v>5670.104</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
         <v>5.98179</v>
@@ -8187,7 +8474,7 @@
         <v>78.03499000000001</v>
       </c>
       <c r="I174" s="22" t="n">
-        <v>1.61698</v>
+        <v>1.88698</v>
       </c>
       <c r="J174" s="21" t="n">
         <v>85.16217999999999</v>
@@ -8201,12 +8488,17 @@
       <c r="M174" s="22" t="n">
         <v>2520.34447</v>
       </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+      <c r="N174" s="22" t="n">
+        <v>840.255</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
         <v>263.14509</v>
@@ -8215,10 +8507,10 @@
         <v>281.93321</v>
       </c>
       <c r="E175" s="22" t="n">
-        <v>794.27871</v>
+        <v>794.2787099999999</v>
       </c>
       <c r="F175" s="21" t="n">
-        <v>974.1588300000001</v>
+        <v>974.15883</v>
       </c>
       <c r="G175" s="22" t="n">
         <v>1187.39952</v>
@@ -8227,26 +8519,31 @@
         <v>1102.23161</v>
       </c>
       <c r="I175" s="22" t="n">
-        <v>1007.04141</v>
+        <v>1035.21222</v>
       </c>
       <c r="J175" s="21" t="n">
-        <v>1310.68553</v>
+        <v>1331.58774</v>
       </c>
       <c r="K175" s="22" t="n">
         <v>1284.95184</v>
       </c>
       <c r="L175" s="22" t="n">
-        <v>3855.37093</v>
+        <v>3855.40418</v>
       </c>
       <c r="M175" s="22" t="n">
-        <v>3671.543250000001</v>
-      </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+        <v>3710.10515</v>
+      </c>
+      <c r="N175" s="22" t="n">
+        <v>4829.849</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>255.09916</v>
@@ -8255,7 +8552,7 @@
         <v>316.34242</v>
       </c>
       <c r="E176" s="23" t="n">
-        <v>420.6733199999999</v>
+        <v>420.67332</v>
       </c>
       <c r="F176" s="33" t="n">
         <v>288.70789</v>
@@ -8276,17 +8573,22 @@
         <v>1482.63561</v>
       </c>
       <c r="L176" s="23" t="n">
-        <v>870.3914199999999</v>
+        <v>870.39142</v>
       </c>
       <c r="M176" s="23" t="n">
-        <v>6912.684149999999</v>
-      </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+        <v>7113.969</v>
+      </c>
+      <c r="N176" s="23" t="n">
+        <v>4165.813</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>121.92936</v>
@@ -8319,14 +8621,19 @@
         <v>144.04013</v>
       </c>
       <c r="M177" s="22" t="n">
-        <v>308.39408</v>
-      </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+        <v>318.90773</v>
+      </c>
+      <c r="N177" s="22" t="n">
+        <v>3150.778</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>133.16546</v>
@@ -8347,7 +8654,7 @@
         <v>458.85439</v>
       </c>
       <c r="I178" s="22" t="n">
-        <v>710.5645999999999</v>
+        <v>710.5646</v>
       </c>
       <c r="J178" s="21" t="n">
         <v>271.44137</v>
@@ -8359,14 +8666,19 @@
         <v>520.2127399999999</v>
       </c>
       <c r="M178" s="22" t="n">
-        <v>895.50371</v>
-      </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+        <v>1086.27491</v>
+      </c>
+      <c r="N178" s="22" t="n">
+        <v>885.064</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>0</v>
@@ -8401,12 +8713,17 @@
       <c r="M179" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+      <c r="N179" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>0.00434</v>
@@ -8441,12 +8758,17 @@
       <c r="M180" s="22" t="n">
         <v>73.37797999999999</v>
       </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+      <c r="N180" s="22" t="n">
+        <v>5.631</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>0</v>
@@ -8479,14 +8801,19 @@
         <v>150.92021</v>
       </c>
       <c r="M181" s="35" t="n">
-        <v>5635.408380000001</v>
-      </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+        <v>5635.40838</v>
+      </c>
+      <c r="N181" s="35" t="n">
+        <v>124.34</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
         <v>23585.66936</v>
@@ -8495,7 +8822,7 @@
         <v>29115.23894</v>
       </c>
       <c r="E182" s="23" t="n">
-        <v>52469.15270000001</v>
+        <v>52469.1527</v>
       </c>
       <c r="F182" s="33" t="n">
         <v>78298.87768000001</v>
@@ -8516,17 +8843,22 @@
         <v>367522.86151</v>
       </c>
       <c r="L182" s="23" t="n">
-        <v>364135.65499</v>
+        <v>364914.96501</v>
       </c>
       <c r="M182" s="23" t="n">
-        <v>416908.13555</v>
-      </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+        <v>427188.00179</v>
+      </c>
+      <c r="N182" s="23" t="n">
+        <v>492098.516</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
         <v>10586.46888</v>
@@ -8556,17 +8888,22 @@
         <v>323716.3771</v>
       </c>
       <c r="L183" s="23" t="n">
-        <v>281025.2999099999</v>
+        <v>281361.90225</v>
       </c>
       <c r="M183" s="23" t="n">
-        <v>351837.7102</v>
-      </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+        <v>353342.46029</v>
+      </c>
+      <c r="N183" s="23" t="n">
+        <v>380438.193</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
         <v>9406.34001</v>
@@ -8581,7 +8918,7 @@
         <v>51864.23155</v>
       </c>
       <c r="G184" s="22" t="n">
-        <v>74518.90774000001</v>
+        <v>74518.90774</v>
       </c>
       <c r="H184" s="21" t="n">
         <v>100152.39795</v>
@@ -8596,17 +8933,22 @@
         <v>294373.68328</v>
       </c>
       <c r="L184" s="22" t="n">
-        <v>256781.74366</v>
+        <v>257118.346</v>
       </c>
       <c r="M184" s="22" t="n">
-        <v>323952.0725</v>
-      </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+        <v>325456.8225900001</v>
+      </c>
+      <c r="N184" s="22" t="n">
+        <v>351023.991</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
         <v>1176.03395</v>
@@ -8621,10 +8963,10 @@
         <v>2238.61654</v>
       </c>
       <c r="G185" s="22" t="n">
-        <v>7664.528029999999</v>
+        <v>7664.52803</v>
       </c>
       <c r="H185" s="21" t="n">
-        <v>7900.60645</v>
+        <v>7900.606449999999</v>
       </c>
       <c r="I185" s="22" t="n">
         <v>27511.26594</v>
@@ -8641,12 +8983,17 @@
       <c r="M185" s="22" t="n">
         <v>30357.26986</v>
       </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+      <c r="N185" s="22" t="n">
+        <v>36312.603</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
         <v>201.25739</v>
@@ -8661,7 +9008,7 @@
         <v>705.87748</v>
       </c>
       <c r="G186" s="22" t="n">
-        <v>828.06187</v>
+        <v>828.0618700000001</v>
       </c>
       <c r="H186" s="21" t="n">
         <v>729.49599</v>
@@ -8681,12 +9028,17 @@
       <c r="M186" s="22" t="n">
         <v>4194.621160000001</v>
       </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="N186" s="22" t="n">
+        <v>7200.491</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>205.35231</v>
@@ -8841,12 +9208,17 @@
       <c r="M190" s="22" t="n">
         <v>1722.989</v>
       </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+      <c r="N190" s="22" t="n">
+        <v>302.09</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
         <v>3486.76895</v>
@@ -8879,14 +9251,19 @@
         <v>38665.55562</v>
       </c>
       <c r="M191" s="23" t="n">
-        <v>36458.33166</v>
-      </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+        <v>44135.61401999999</v>
+      </c>
+      <c r="N191" s="23" t="n">
+        <v>38303.166</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>780.74663</v>
@@ -8921,12 +9298,17 @@
       <c r="M192" s="22" t="n">
         <v>1231.77589</v>
       </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+      <c r="N192" s="22" t="n">
+        <v>1137.774</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>2706.02232</v>
@@ -8959,14 +9341,19 @@
         <v>25032.13731</v>
       </c>
       <c r="M193" s="22" t="n">
-        <v>19807.71908</v>
-      </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+        <v>27485.00144</v>
+      </c>
+      <c r="N193" s="22" t="n">
+        <v>31400.213</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -9001,12 +9388,17 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>0</v>
@@ -9041,12 +9433,17 @@
       <c r="M195" s="22" t="n">
         <v>29</v>
       </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+      <c r="N195" s="22" t="n">
+        <v>48</v>
+      </c>
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>0</v>
@@ -9081,15 +9478,20 @@
       <c r="M196" s="22" t="n">
         <v>15389.83669</v>
       </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+      <c r="N196" s="22" t="n">
+        <v>5717.179</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
-        <v>8149.382369999999</v>
+        <v>8149.38237</v>
       </c>
       <c r="D197" s="23" t="n">
         <v>8003.49491</v>
@@ -9116,17 +9518,22 @@
         <v>18125.34448</v>
       </c>
       <c r="L197" s="23" t="n">
-        <v>21887.81305</v>
+        <v>22330.26996</v>
       </c>
       <c r="M197" s="23" t="n">
-        <v>16711.49748</v>
-      </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+        <v>17536.19868</v>
+      </c>
+      <c r="N197" s="23" t="n">
+        <v>53777.909</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
         <v>7895.28734</v>
@@ -9156,17 +9563,22 @@
         <v>16097.902</v>
       </c>
       <c r="L198" s="22" t="n">
-        <v>17884.81052</v>
+        <v>18213.88272</v>
       </c>
       <c r="M198" s="22" t="n">
-        <v>12881.21864</v>
-      </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+        <v>13451.50784</v>
+      </c>
+      <c r="N198" s="22" t="n">
+        <v>48256.684</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>0</v>
@@ -9201,12 +9613,17 @@
       <c r="M199" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+      <c r="N199" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>0</v>
@@ -9241,12 +9658,17 @@
       <c r="M200" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
         <v>0</v>
@@ -9276,17 +9698,22 @@
         <v>0</v>
       </c>
       <c r="L201" s="22" t="n">
-        <v>1904.38216</v>
+        <v>1979.38216</v>
       </c>
       <c r="M201" s="22" t="n">
         <v>2854.45207</v>
       </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+      <c r="N201" s="22" t="n">
+        <v>1904.382</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>254.09503</v>
@@ -9356,17 +9788,22 @@
         <v>2027.44248</v>
       </c>
       <c r="L203" s="22" t="n">
-        <v>2098.62037</v>
+        <v>2137.00508</v>
       </c>
       <c r="M203" s="22" t="n">
-        <v>975.82677</v>
-      </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+        <v>1230.23877</v>
+      </c>
+      <c r="N203" s="22" t="n">
+        <v>3616.843</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>227.1055</v>
@@ -9401,12 +9838,17 @@
       <c r="M204" s="23" t="n">
         <v>180</v>
       </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+      <c r="N204" s="23" t="n">
+        <v>575</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>227.1055</v>
@@ -9441,12 +9883,17 @@
       <c r="M205" s="22" t="n">
         <v>180</v>
       </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+      <c r="N205" s="22" t="n">
+        <v>575</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>0</v>
@@ -9481,12 +9928,17 @@
       <c r="M206" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+      <c r="N206" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
         <v>228.82416</v>
@@ -9521,12 +9973,17 @@
       <c r="M207" s="23" t="n">
         <v>4180.17998</v>
       </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+      <c r="N207" s="23" t="n">
+        <v>4666.903</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
         <v>228.82416</v>
@@ -9561,12 +10018,17 @@
       <c r="M208" s="22" t="n">
         <v>4179.17658</v>
       </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+      <c r="N208" s="22" t="n">
+        <v>4666.903</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>0</v>
@@ -9601,12 +10063,17 @@
       <c r="M209" s="22" t="n">
         <v>1.0034</v>
       </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+      <c r="N209" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
         <v>907.1195</v>
@@ -9636,17 +10103,22 @@
         <v>10678.42303</v>
       </c>
       <c r="L210" s="23" t="n">
-        <v>16984.68296</v>
+        <v>16984.93373</v>
       </c>
       <c r="M210" s="23" t="n">
-        <v>7340.416230000001</v>
-      </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+        <v>7613.54882</v>
+      </c>
+      <c r="N210" s="23" t="n">
+        <v>14337.138</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
         <v>873.8</v>
@@ -9679,14 +10151,19 @@
         <v>15761.06962</v>
       </c>
       <c r="M211" s="22" t="n">
-        <v>2295.69152</v>
-      </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+        <v>2568.68587</v>
+      </c>
+      <c r="N211" s="22" t="n">
+        <v>6517.616</v>
+      </c>
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>33.3195</v>
@@ -9713,20 +10190,25 @@
         <v>384.46932</v>
       </c>
       <c r="K212" s="22" t="n">
-        <v>629.8717999999999</v>
+        <v>629.8718</v>
       </c>
       <c r="L212" s="22" t="n">
-        <v>1223.61334</v>
+        <v>1223.86411</v>
       </c>
       <c r="M212" s="22" t="n">
-        <v>5044.72471</v>
-      </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+        <v>5044.862949999999</v>
+      </c>
+      <c r="N212" s="22" t="n">
+        <v>7819.522</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>0</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>200</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>0</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>0</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>0</v>
@@ -9881,12 +10378,17 @@
       <c r="M216" s="35" t="n">
         <v>200</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
         <v>180620.24286</v>
@@ -9901,32 +10403,37 @@
         <v>293894.35429</v>
       </c>
       <c r="G217" s="23" t="n">
-        <v>450493.8164</v>
+        <v>450378.4117000001</v>
       </c>
       <c r="H217" s="33" t="n">
-        <v>426253.7209600001</v>
+        <v>426129.02674</v>
       </c>
       <c r="I217" s="23" t="n">
-        <v>585440.81181</v>
+        <v>587110.7260499999</v>
       </c>
       <c r="J217" s="33" t="n">
-        <v>610974.06576</v>
+        <v>660343.8928200001</v>
       </c>
       <c r="K217" s="23" t="n">
         <v>776977.4565699999</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>939421.85597</v>
+        <v>940052.6366500001</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>1131464.43515</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>1126041.25229</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>1454117.552</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
         <v>132508.95649</v>
@@ -9941,32 +10448,37 @@
         <v>147825.22693</v>
       </c>
       <c r="G218" s="23" t="n">
-        <v>217254.59894</v>
+        <v>217274.59894</v>
       </c>
       <c r="H218" s="33" t="n">
-        <v>177436.03058</v>
+        <v>177456.03058</v>
       </c>
       <c r="I218" s="23" t="n">
-        <v>248732.80428</v>
+        <v>249472.89588</v>
       </c>
       <c r="J218" s="33" t="n">
-        <v>240344.70287</v>
+        <v>296369.70287</v>
       </c>
       <c r="K218" s="23" t="n">
         <v>338517.3889500001</v>
       </c>
       <c r="L218" s="23" t="n">
-        <v>401921.75216</v>
+        <v>403579.04955</v>
       </c>
       <c r="M218" s="23" t="n">
-        <v>528167.61148</v>
-      </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+        <v>534482.4407899999</v>
+      </c>
+      <c r="N218" s="23" t="n">
+        <v>484429.909</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
         <v>138318.25837</v>
@@ -9981,32 +10493,37 @@
         <v>155885.42366</v>
       </c>
       <c r="G219" s="22" t="n">
-        <v>215527.31641</v>
+        <v>215547.31641</v>
       </c>
       <c r="H219" s="21" t="n">
-        <v>177789.67741</v>
+        <v>177809.67741</v>
       </c>
       <c r="I219" s="22" t="n">
-        <v>250988.17741</v>
+        <v>252008.17741</v>
       </c>
       <c r="J219" s="21" t="n">
-        <v>242456.92741</v>
+        <v>298556.9274099999</v>
       </c>
       <c r="K219" s="22" t="n">
         <v>344649.9274099999</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>409686.25066</v>
+        <v>412952.25066</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>541289.07129</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>551539.07129</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>497921.012</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
         <v>18991.15235</v>
@@ -10027,26 +10544,31 @@
         <v>7911.69656</v>
       </c>
       <c r="I220" s="22" t="n">
-        <v>9853.246640000001</v>
+        <v>10173.24664</v>
       </c>
       <c r="J220" s="21" t="n">
-        <v>8741.41079</v>
+        <v>8816.41079</v>
       </c>
       <c r="K220" s="22" t="n">
         <v>13240.89018</v>
       </c>
       <c r="L220" s="22" t="n">
-        <v>14609.64059</v>
+        <v>16245.09059</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>19959.26117</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>23908.43117</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>18507.471</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
         <v>13192.82579</v>
@@ -10064,10 +10586,10 @@
         <v>10540.94246</v>
       </c>
       <c r="H221" s="21" t="n">
-        <v>7558.04973</v>
+        <v>7558.049730000001</v>
       </c>
       <c r="I221" s="22" t="n">
-        <v>7597.873509999999</v>
+        <v>7637.965109999999</v>
       </c>
       <c r="J221" s="21" t="n">
         <v>6629.18625</v>
@@ -10076,17 +10598,22 @@
         <v>7108.35172</v>
       </c>
       <c r="L221" s="22" t="n">
-        <v>6845.14209</v>
+        <v>6871.88948</v>
       </c>
       <c r="M221" s="22" t="n">
-        <v>6837.80136</v>
-      </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+        <v>6851.80067</v>
+      </c>
+      <c r="N221" s="22" t="n">
+        <v>5016.368</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>10.97532</v>
@@ -10121,24 +10648,29 @@
       <c r="M222" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
         <v>1610.54604</v>
       </c>
       <c r="D223" s="23" t="n">
-        <v>926.7240499999999</v>
+        <v>926.72405</v>
       </c>
       <c r="E223" s="23" t="n">
         <v>3168.786</v>
       </c>
       <c r="F223" s="33" t="n">
-        <v>882.00805</v>
+        <v>882.0080499999999</v>
       </c>
       <c r="G223" s="23" t="n">
         <v>3460.98932</v>
@@ -10156,17 +10688,22 @@
         <v>38040.5705</v>
       </c>
       <c r="L223" s="23" t="n">
-        <v>60636.87802999999</v>
+        <v>60785.48190000001</v>
       </c>
       <c r="M223" s="23" t="n">
-        <v>62757.21642</v>
-      </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+        <v>62787.31642</v>
+      </c>
+      <c r="N223" s="23" t="n">
+        <v>70640.21400000001</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>0</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>177.0556</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>177.056</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>500</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>467.28189</v>
@@ -10281,12 +10828,17 @@
       <c r="M226" s="22" t="n">
         <v>15989.61255</v>
       </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+      <c r="N226" s="22" t="n">
+        <v>25232.593</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>0</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>1003.785</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>1003.785</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10361,12 +10918,17 @@
       <c r="M228" s="22" t="n">
         <v>8723.543780000002</v>
       </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+      <c r="N228" s="22" t="n">
+        <v>8088.93</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,12 +10963,17 @@
       <c r="M229" s="22" t="n">
         <v>1000</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
         <v>1143.26415</v>
@@ -10436,17 +11003,22 @@
         <v>26384.90547</v>
       </c>
       <c r="L230" s="22" t="n">
-        <v>41731.81561999999</v>
+        <v>41880.41949</v>
       </c>
       <c r="M230" s="22" t="n">
-        <v>35363.21949</v>
-      </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+        <v>35393.31948999999</v>
+      </c>
+      <c r="N230" s="22" t="n">
+        <v>35137.85</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
         <v>22185.85623</v>
@@ -10455,19 +11027,19 @@
         <v>26652.227</v>
       </c>
       <c r="E231" s="23" t="n">
-        <v>33049.43611000001</v>
+        <v>33049.43611</v>
       </c>
       <c r="F231" s="33" t="n">
         <v>42883.31268</v>
       </c>
       <c r="G231" s="23" t="n">
-        <v>56106.49809</v>
+        <v>56106.91217</v>
       </c>
       <c r="H231" s="33" t="n">
-        <v>63165.16613000001</v>
+        <v>63165.58020999999</v>
       </c>
       <c r="I231" s="23" t="n">
-        <v>82187.5257</v>
+        <v>82219.50408</v>
       </c>
       <c r="J231" s="33" t="n">
         <v>104137.99208</v>
@@ -10476,17 +11048,22 @@
         <v>101706.23807</v>
       </c>
       <c r="L231" s="23" t="n">
-        <v>138850.89661</v>
+        <v>139132.64402</v>
       </c>
       <c r="M231" s="23" t="n">
-        <v>124282.56032</v>
-      </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+        <v>124619.12496</v>
+      </c>
+      <c r="N231" s="23" t="n">
+        <v>153363.051</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
         <v>4365.05817</v>
@@ -10501,13 +11078,13 @@
         <v>12747.32453</v>
       </c>
       <c r="G232" s="22" t="n">
-        <v>17305.65093</v>
+        <v>17306.02737</v>
       </c>
       <c r="H232" s="21" t="n">
-        <v>20878.91509</v>
+        <v>20879.29153</v>
       </c>
       <c r="I232" s="22" t="n">
-        <v>25167.86026</v>
+        <v>25169.12258</v>
       </c>
       <c r="J232" s="21" t="n">
         <v>27366.4473</v>
@@ -10516,17 +11093,22 @@
         <v>30071.07587</v>
       </c>
       <c r="L232" s="22" t="n">
-        <v>38208.25566999999</v>
+        <v>38255.58529000001</v>
       </c>
       <c r="M232" s="22" t="n">
-        <v>40425.22453</v>
-      </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+        <v>40481.43852</v>
+      </c>
+      <c r="N232" s="22" t="n">
+        <v>26224.66</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
         <v>1565.97568</v>
@@ -10541,13 +11123,13 @@
         <v>220.50964</v>
       </c>
       <c r="G233" s="22" t="n">
-        <v>850.2103400000001</v>
+        <v>850.24798</v>
       </c>
       <c r="H233" s="21" t="n">
-        <v>732.5317599999998</v>
+        <v>732.5693999999999</v>
       </c>
       <c r="I233" s="22" t="n">
-        <v>209.59366</v>
+        <v>209.6313</v>
       </c>
       <c r="J233" s="21" t="n">
         <v>220.9908</v>
@@ -10561,12 +11143,17 @@
       <c r="M233" s="22" t="n">
         <v>1427.51661</v>
       </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+      <c r="N233" s="22" t="n">
+        <v>118.633</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
         <v>5763.918900000001</v>
@@ -10584,10 +11171,10 @@
         <v>23174.4811</v>
       </c>
       <c r="H234" s="21" t="n">
-        <v>35404.1258</v>
+        <v>35404.12579999999</v>
       </c>
       <c r="I234" s="22" t="n">
-        <v>38536.42954</v>
+        <v>38544.87819</v>
       </c>
       <c r="J234" s="21" t="n">
         <v>42109.05946</v>
@@ -10596,17 +11183,22 @@
         <v>36690.14614</v>
       </c>
       <c r="L234" s="22" t="n">
-        <v>65228.50601999999</v>
+        <v>65281.98591</v>
       </c>
       <c r="M234" s="22" t="n">
-        <v>68574.78988</v>
-      </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+        <v>68636.78773000001</v>
+      </c>
+      <c r="N234" s="22" t="n">
+        <v>69981.33500000001</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>279.82986</v>
@@ -10630,7 +11222,7 @@
         <v>266.00487</v>
       </c>
       <c r="J235" s="21" t="n">
-        <v>304.1453999999999</v>
+        <v>304.1454</v>
       </c>
       <c r="K235" s="22" t="n">
         <v>329.08481</v>
@@ -10641,12 +11233,17 @@
       <c r="M235" s="22" t="n">
         <v>384.45297</v>
       </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+      <c r="N235" s="22" t="n">
+        <v>34845.463</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
         <v>10211.07362</v>
@@ -10658,35 +11255,40 @@
         <v>5660.511320000001</v>
       </c>
       <c r="F236" s="21" t="n">
-        <v>7455.108770000001</v>
+        <v>7455.10877</v>
       </c>
       <c r="G236" s="22" t="n">
         <v>14531.21391</v>
       </c>
       <c r="H236" s="21" t="n">
-        <v>5896.050310000001</v>
+        <v>5896.05031</v>
       </c>
       <c r="I236" s="22" t="n">
-        <v>18007.63737</v>
+        <v>18029.86714</v>
       </c>
       <c r="J236" s="21" t="n">
         <v>34137.34912</v>
       </c>
       <c r="K236" s="22" t="n">
-        <v>34372.09787000001</v>
+        <v>34372.09787</v>
       </c>
       <c r="L236" s="22" t="n">
-        <v>34899.04884</v>
+        <v>35079.98673999999</v>
       </c>
       <c r="M236" s="22" t="n">
-        <v>13470.57633</v>
-      </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+        <v>13688.92913</v>
+      </c>
+      <c r="N236" s="22" t="n">
+        <v>22192.96</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
         <v>44777.32954</v>
@@ -10701,38 +11303,43 @@
         <v>98237.57509</v>
       </c>
       <c r="G237" s="23" t="n">
-        <v>144873.64426</v>
+        <v>144881.88344</v>
       </c>
       <c r="H237" s="33" t="n">
-        <v>179305.30421</v>
+        <v>179308.6546</v>
       </c>
       <c r="I237" s="23" t="n">
-        <v>238315.03229</v>
+        <v>239271.45023</v>
       </c>
       <c r="J237" s="33" t="n">
-        <v>267148.51782</v>
+        <v>267437.47243</v>
       </c>
       <c r="K237" s="23" t="n">
         <v>301570.97193</v>
       </c>
       <c r="L237" s="23" t="n">
-        <v>326430.55687</v>
+        <v>329341.55315</v>
       </c>
       <c r="M237" s="23" t="n">
-        <v>436640.57985</v>
-      </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+        <v>440789.15266</v>
+      </c>
+      <c r="N237" s="23" t="n">
+        <v>571697.443</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
         <v>-38937.62832</v>
       </c>
       <c r="D238" s="23" t="n">
-        <v>-49104.41907000001</v>
+        <v>-49104.41907</v>
       </c>
       <c r="E238" s="23" t="n">
         <v>-54498.43922</v>
@@ -10741,32 +11348,37 @@
         <v>-45629.17509</v>
       </c>
       <c r="G238" s="23" t="n">
-        <v>-54027.82047</v>
+        <v>-54166.98964</v>
       </c>
       <c r="H238" s="33" t="n">
-        <v>-57780.01939</v>
+        <v>-57924.07734999999</v>
       </c>
       <c r="I238" s="23" t="n">
-        <v>-75178.58487999999</v>
+        <v>-75402.97409999999</v>
       </c>
       <c r="J238" s="33" t="n">
-        <v>-66288.93635999999</v>
+        <v>-73015.80644</v>
       </c>
       <c r="K238" s="23" t="n">
-        <v>-82298.35832000001</v>
+        <v>-82298.35832</v>
       </c>
       <c r="L238" s="23" t="n">
-        <v>-115034.19255</v>
+        <v>-118249.10462</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-164423.06529</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-180827.12875</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-168200.259</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
         <v>18475.18288</v>
@@ -10781,32 +11393,37 @@
         <v>49695.40663</v>
       </c>
       <c r="G239" s="23" t="n">
-        <v>82825.90626</v>
+        <v>82821.01746999998</v>
       </c>
       <c r="H239" s="33" t="n">
-        <v>61274.12157</v>
+        <v>61269.72083999999</v>
       </c>
       <c r="I239" s="23" t="n">
-        <v>86702.37805</v>
+        <v>86868.19359000001</v>
       </c>
       <c r="J239" s="33" t="n">
-        <v>29716.92186</v>
+        <v>29499.66439</v>
       </c>
       <c r="K239" s="23" t="n">
         <v>79440.64543999999</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>126615.96485</v>
+        <v>125463.01265</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>144039.53237</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>144190.34621</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>342187.194</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
         <v>27347.41394</v>
@@ -10818,7 +11435,7 @@
         <v>55585.93941</v>
       </c>
       <c r="F240" s="21" t="n">
-        <v>60838.18785999999</v>
+        <v>60838.18786</v>
       </c>
       <c r="G240" s="22" t="n">
         <v>91702.17091</v>
@@ -10827,7 +11444,7 @@
         <v>72355.04137000001</v>
       </c>
       <c r="I240" s="22" t="n">
-        <v>110779.67163</v>
+        <v>110952.38189</v>
       </c>
       <c r="J240" s="21" t="n">
         <v>61240.3405</v>
@@ -10836,17 +11453,22 @@
         <v>119033.92644</v>
       </c>
       <c r="L240" s="22" t="n">
-        <v>199743.30116</v>
+        <v>199986.9545</v>
       </c>
       <c r="M240" s="22" t="n">
-        <v>213321.29406</v>
-      </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+        <v>215079.38336</v>
+      </c>
+      <c r="N240" s="22" t="n">
+        <v>372411.758</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
         <v>8872.231059999998</v>
@@ -10861,69 +11483,77 @@
         <v>11142.78123</v>
       </c>
       <c r="G241" s="22" t="n">
-        <v>8876.264650000001</v>
+        <v>8881.15344</v>
       </c>
       <c r="H241" s="21" t="n">
-        <v>11080.9198</v>
+        <v>11085.32053</v>
       </c>
       <c r="I241" s="22" t="n">
-        <v>24077.29358</v>
+        <v>24084.1883</v>
       </c>
       <c r="J241" s="21" t="n">
-        <v>31523.41864</v>
+        <v>31740.67611</v>
       </c>
       <c r="K241" s="22" t="n">
         <v>39593.281</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>73127.33631</v>
+        <v>74523.94184999999</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>69281.76169</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>70889.03714999999</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>30224.564</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
-        <v>418580.5641700001</v>
+        <v>418580.56417</v>
       </c>
       <c r="D242" s="47" t="n">
         <v>483979.13506</v>
       </c>
       <c r="E242" s="47" t="n">
-        <v>662147.81476</v>
+        <v>662147.8147599999</v>
       </c>
       <c r="F242" s="48" t="n">
         <v>753534.27487</v>
       </c>
       <c r="G242" s="47" t="n">
-        <v>1035064.98831</v>
+        <v>1035107.59494</v>
       </c>
       <c r="H242" s="48" t="n">
-        <v>1162689.58551</v>
+        <v>1162727.51872</v>
       </c>
       <c r="I242" s="47" t="n">
-        <v>1567521.33281</v>
+        <v>1569682.31697</v>
       </c>
       <c r="J242" s="48" t="n">
-        <v>1724895.6843</v>
+        <v>1795843.15019</v>
       </c>
       <c r="K242" s="47" t="n">
         <v>2200207.49974</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>2508701.65175</v>
+        <v>2538160.980270001</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>2696262.52134</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>2730155.54381</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>3361487.522</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,12 +11567,15 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
         <v>359</v>
@@ -10957,29 +11590,32 @@
         <v>348</v>
       </c>
       <c r="G244" s="52" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H244" s="53" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I244" s="52" t="n">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="J244" s="53" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K244" s="52" t="n">
         <v>375</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>346</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>391</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>409</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>